--- a/SWGCalculator.xlsx
+++ b/SWGCalculator.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmoore\Dropbox\Home\Pool\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="22650" yWindow="0" windowWidth="3615" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="1" r:id="rId1"/>
     <sheet name="ChangeLog" sheetId="2" r:id="rId2"/>
+    <sheet name="Setup" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171026"/>
+  <definedNames>
+    <definedName name="Max_Runtime">Runtime[Max Runtime]</definedName>
+    <definedName name="Min_Runtime">Runtime[Min Runtime]</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
   <si>
     <t>FC</t>
   </si>
@@ -178,17 +178,44 @@
   </si>
   <si>
     <t>Updated header / footer and print settings</t>
+  </si>
+  <si>
+    <t>Min Runtime</t>
+  </si>
+  <si>
+    <t>Max Runtime</t>
+  </si>
+  <si>
+    <t>Beta 1.3</t>
+  </si>
+  <si>
+    <t>Conditional formating to show good, ok, and bad values for percent table, adjustable in Setup tab</t>
+  </si>
+  <si>
+    <t>Add sliders for Calculate Runtime and Calculate SWG % input cells</t>
+  </si>
+  <si>
+    <t>Bold Column in SWG % table based on the FC demand ppm cell</t>
+  </si>
+  <si>
+    <t>Use ceiling function to round the SWG% in the Calculate SWG %</t>
+  </si>
+  <si>
+    <t>Modified by Lightmaster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0&quot; Hours&quot;"/>
+    <numFmt numFmtId="168" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -592,7 +619,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -605,13 +632,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -644,7 +665,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -675,6 +695,24 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -714,22 +752,22 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -760,7 +798,65 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="168" formatCode="mm/dd/yyyy"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FFFF0000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FFFF0000"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -778,15 +874,120 @@
 </styleSheet>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$D$14" horiz="1" inc="5" max="100" page="10" val="10"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$D$23" horiz="1" max="24" page="2" val="8"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>276225</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Scroll Bar 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>276225</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>28575</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>342900</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>161925</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Scroll Bar 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0">
-  <autoFilter ref="A1:C11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C15" totalsRowShown="0">
+  <autoFilter ref="A1:C15"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Version"/>
-    <tableColumn id="3" name="Date"/>
+    <tableColumn id="3" name="Date" dataDxfId="0"/>
     <tableColumn id="2" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Runtime" displayName="Runtime" ref="A1:B2" totalsRowShown="0">
+  <tableColumns count="2">
+    <tableColumn id="1" name="Min Runtime"/>
+    <tableColumn id="2" name="Max Runtime"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1079,18 +1280,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:M42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,832 +1303,834 @@
     <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="1.5703125" customWidth="1"/>
     <col min="7" max="7" width="3.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="7.7109375" style="16" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="7.7109375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="29" t="s">
+    <row r="1" spans="2:13" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="B1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43" t="s">
+      <c r="C2" s="37"/>
+      <c r="D2" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="B4" s="32"/>
-      <c r="C4" s="75" t="s">
+    <row r="4" spans="2:13" ht="21" x14ac:dyDescent="0.3">
+      <c r="B4" s="27"/>
+      <c r="C4" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="33"/>
-      <c r="H4" s="54" t="s">
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="28"/>
+      <c r="H4" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-    </row>
-    <row r="5" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="34"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+    </row>
+    <row r="5" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="29"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="21"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="34"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" s="29"/>
       <c r="C6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="10">
-        <v>14500</v>
+      <c r="D6" s="45">
+        <v>6700</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="23" t="s">
+      <c r="F6" s="30"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="56" t="s">
+      <c r="I6" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="58"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="34"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="60"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" s="29"/>
       <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="11">
-        <v>2</v>
+      <c r="D7" s="46">
+        <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="24" t="s">
+      <c r="F7" s="30"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="49">
+      <c r="I7" s="44">
         <v>1</v>
       </c>
-      <c r="J7" s="49">
+      <c r="J7" s="44">
         <v>2</v>
       </c>
-      <c r="K7" s="49">
+      <c r="K7" s="44">
         <v>3</v>
       </c>
-      <c r="L7" s="49">
+      <c r="L7" s="44">
         <v>4</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="44">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="34"/>
-      <c r="C8" s="15" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="12">
-        <v>0.4</v>
+      <c r="D8" s="47">
+        <v>2</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="17">
+      <c r="F8" s="30"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="13">
         <v>0.05</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="14">
         <f>ROUND(I$7/($D$8*16/$D$6*7489.4*$H8/24),1)</f>
-        <v>145.19999999999999</v>
-      </c>
-      <c r="J8" s="18">
+        <v>13.4</v>
+      </c>
+      <c r="J8" s="14">
         <f t="shared" ref="J8:M8" si="0">ROUND(J$7/($D$8*16/$D$6*7489.4*$H8/24),1)</f>
-        <v>290.39999999999998</v>
-      </c>
-      <c r="K8" s="18">
+        <v>26.8</v>
+      </c>
+      <c r="K8" s="14">
         <f t="shared" si="0"/>
-        <v>435.6</v>
-      </c>
-      <c r="L8" s="18">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="L8" s="14">
         <f t="shared" si="0"/>
-        <v>580.79999999999995</v>
-      </c>
-      <c r="M8" s="18">
+        <v>53.7</v>
+      </c>
+      <c r="M8" s="14">
         <f t="shared" si="0"/>
-        <v>726</v>
+        <v>67.099999999999994</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="34"/>
+      <c r="B9" s="29"/>
       <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="10">
         <f>D8*16/D6*7489.4</f>
-        <v>3.3056662068965519</v>
+        <v>35.770268656716418</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="17">
+      <c r="F9" s="30"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="13">
         <v>0.1</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="14">
         <f t="shared" ref="I9:M27" si="1">ROUND(I$7/($D$8*16/$D$6*7489.4*$H9/24),1)</f>
-        <v>72.599999999999994</v>
-      </c>
-      <c r="J9" s="18">
-        <f t="shared" si="1"/>
-        <v>145.19999999999999</v>
-      </c>
-      <c r="K9" s="18">
-        <f t="shared" si="1"/>
-        <v>217.8</v>
-      </c>
-      <c r="L9" s="18">
-        <f t="shared" si="1"/>
-        <v>290.39999999999998</v>
-      </c>
-      <c r="M9" s="18">
-        <f t="shared" si="1"/>
-        <v>363</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="36"/>
-      <c r="C10" s="37" t="s">
+        <v>6.7</v>
+      </c>
+      <c r="J9" s="14">
+        <f t="shared" si="1"/>
+        <v>13.4</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" si="1"/>
+        <v>20.100000000000001</v>
+      </c>
+      <c r="L9" s="14">
+        <f t="shared" si="1"/>
+        <v>26.8</v>
+      </c>
+      <c r="M9" s="14">
+        <f t="shared" si="1"/>
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="31"/>
+      <c r="C10" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="38">
+      <c r="D10" s="33">
         <f>D9/24</f>
-        <v>0.137736091954023</v>
-      </c>
-      <c r="E10" s="37" t="s">
+        <v>1.4904278606965173</v>
+      </c>
+      <c r="E10" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="17">
+      <c r="F10" s="34"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="13">
         <v>0.15</v>
       </c>
-      <c r="I10" s="18">
-        <f t="shared" si="1"/>
-        <v>48.4</v>
-      </c>
-      <c r="J10" s="18">
-        <f t="shared" si="1"/>
-        <v>96.8</v>
-      </c>
-      <c r="K10" s="18">
-        <f t="shared" si="1"/>
-        <v>145.19999999999999</v>
-      </c>
-      <c r="L10" s="18">
-        <f t="shared" si="1"/>
-        <v>193.6</v>
-      </c>
-      <c r="M10" s="18">
-        <f t="shared" si="1"/>
-        <v>242</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F11" s="40"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="17">
+      <c r="I10" s="14">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="J10" s="14">
+        <f t="shared" si="1"/>
+        <v>8.9</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="shared" si="1"/>
+        <v>13.4</v>
+      </c>
+      <c r="L10" s="14">
+        <f t="shared" si="1"/>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="M10" s="14">
+        <f t="shared" si="1"/>
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F11" s="35"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="13">
         <v>0.2</v>
       </c>
-      <c r="I11" s="18">
-        <f t="shared" si="1"/>
-        <v>36.299999999999997</v>
-      </c>
-      <c r="J11" s="18">
-        <f t="shared" si="1"/>
-        <v>72.599999999999994</v>
-      </c>
-      <c r="K11" s="18">
-        <f t="shared" si="1"/>
-        <v>108.9</v>
-      </c>
-      <c r="L11" s="18">
-        <f t="shared" si="1"/>
-        <v>145.19999999999999</v>
-      </c>
-      <c r="M11" s="18">
-        <f t="shared" si="1"/>
-        <v>181.5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="45"/>
-      <c r="C12" s="62" t="s">
+      <c r="I11" s="14">
+        <f t="shared" si="1"/>
+        <v>3.4</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" si="1"/>
+        <v>6.7</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" si="1"/>
+        <v>10.1</v>
+      </c>
+      <c r="L11" s="14">
+        <f t="shared" si="1"/>
+        <v>13.4</v>
+      </c>
+      <c r="M11" s="14">
+        <f t="shared" si="1"/>
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B12" s="40"/>
+      <c r="C12" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="17">
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="13">
         <v>0.25</v>
       </c>
-      <c r="I12" s="18">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="J12" s="18">
-        <f t="shared" si="1"/>
-        <v>58.1</v>
-      </c>
-      <c r="K12" s="18">
-        <f t="shared" si="1"/>
-        <v>87.1</v>
-      </c>
-      <c r="L12" s="18">
-        <f t="shared" si="1"/>
-        <v>116.2</v>
-      </c>
-      <c r="M12" s="18">
-        <f t="shared" si="1"/>
-        <v>145.19999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="34"/>
+      <c r="I12" s="14">
+        <f t="shared" si="1"/>
+        <v>2.7</v>
+      </c>
+      <c r="J12" s="14">
+        <f t="shared" si="1"/>
+        <v>5.4</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" si="1"/>
+        <v>8.1</v>
+      </c>
+      <c r="L12" s="14">
+        <f t="shared" si="1"/>
+        <v>10.7</v>
+      </c>
+      <c r="M12" s="14">
+        <f t="shared" si="1"/>
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B13" s="29"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="13"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="17">
+      <c r="F13" s="30"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="13">
         <v>0.3</v>
       </c>
-      <c r="I13" s="18">
-        <f t="shared" si="1"/>
-        <v>24.2</v>
-      </c>
-      <c r="J13" s="18">
-        <f t="shared" si="1"/>
-        <v>48.4</v>
-      </c>
-      <c r="K13" s="18">
-        <f t="shared" si="1"/>
-        <v>72.599999999999994</v>
-      </c>
-      <c r="L13" s="18">
-        <f t="shared" si="1"/>
-        <v>96.8</v>
-      </c>
-      <c r="M13" s="18">
-        <f t="shared" si="1"/>
-        <v>121</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="34"/>
+      <c r="I13" s="14">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J13" s="14">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="K13" s="14">
+        <f t="shared" si="1"/>
+        <v>6.7</v>
+      </c>
+      <c r="L13" s="14">
+        <f t="shared" si="1"/>
+        <v>8.9</v>
+      </c>
+      <c r="M13" s="14">
+        <f t="shared" si="1"/>
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B14" s="29"/>
       <c r="C14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="14">
-        <v>100</v>
+      <c r="D14" s="48">
+        <v>10</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="17">
+      <c r="F14" s="30"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="13">
         <v>0.35</v>
       </c>
-      <c r="I14" s="18">
-        <f t="shared" si="1"/>
-        <v>20.7</v>
-      </c>
-      <c r="J14" s="18">
-        <f t="shared" si="1"/>
-        <v>41.5</v>
-      </c>
-      <c r="K14" s="18">
-        <f t="shared" si="1"/>
-        <v>62.2</v>
-      </c>
-      <c r="L14" s="18">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="M14" s="18">
-        <f t="shared" si="1"/>
-        <v>103.7</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="34"/>
+      <c r="I14" s="14">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" si="1"/>
+        <v>3.8</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="1"/>
+        <v>5.8</v>
+      </c>
+      <c r="L14" s="14">
+        <f t="shared" si="1"/>
+        <v>7.7</v>
+      </c>
+      <c r="M14" s="14">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="29"/>
       <c r="C15" s="2"/>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="17">
+      <c r="F15" s="30"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="13">
         <v>0.4</v>
       </c>
-      <c r="I15" s="18">
-        <f t="shared" si="1"/>
-        <v>18.2</v>
-      </c>
-      <c r="J15" s="18">
-        <f t="shared" si="1"/>
-        <v>36.299999999999997</v>
-      </c>
-      <c r="K15" s="18">
-        <f t="shared" si="1"/>
-        <v>54.5</v>
-      </c>
-      <c r="L15" s="18">
-        <f t="shared" si="1"/>
-        <v>72.599999999999994</v>
-      </c>
-      <c r="M15" s="18">
-        <f t="shared" si="1"/>
-        <v>90.8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="34"/>
-      <c r="C16" s="59" t="str">
+      <c r="I15" s="14">
+        <f t="shared" si="1"/>
+        <v>1.7</v>
+      </c>
+      <c r="J15" s="14">
+        <f t="shared" si="1"/>
+        <v>3.4</v>
+      </c>
+      <c r="K15" s="14">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="L15" s="14">
+        <f t="shared" si="1"/>
+        <v>6.7</v>
+      </c>
+      <c r="M15" s="14">
+        <f t="shared" si="1"/>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="29"/>
+      <c r="C16" s="61" t="str">
         <f>"Run time to replace " &amp; D7 &amp; " PPM @ " &amp; D14 &amp; "% output"</f>
-        <v>Run time to replace 2 PPM @ 100% output</v>
-      </c>
-      <c r="D16" s="60"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="17">
+        <v>Run time to replace 1 PPM @ 10% output</v>
+      </c>
+      <c r="D16" s="62"/>
+      <c r="E16" s="63"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="13">
         <v>0.45</v>
       </c>
-      <c r="I16" s="18">
-        <f t="shared" si="1"/>
-        <v>16.100000000000001</v>
-      </c>
-      <c r="J16" s="18">
-        <f t="shared" si="1"/>
-        <v>32.299999999999997</v>
-      </c>
-      <c r="K16" s="18">
-        <f t="shared" si="1"/>
-        <v>48.4</v>
-      </c>
-      <c r="L16" s="18">
-        <f t="shared" si="1"/>
-        <v>64.5</v>
-      </c>
-      <c r="M16" s="18">
-        <f t="shared" si="1"/>
-        <v>80.7</v>
+      <c r="I16" s="14">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="J16" s="14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K16" s="14">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="L16" s="14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="M16" s="14">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="34"/>
-      <c r="C17" s="63" t="str">
-        <f>ROUND((D7/D10)/D14*100,1) &amp; " Hours"</f>
-        <v>14.5 Hours</v>
-      </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="17">
+      <c r="B17" s="29"/>
+      <c r="C17" s="65">
+        <f>ROUND((D7/D10)/D14*100,1)</f>
+        <v>6.7</v>
+      </c>
+      <c r="D17" s="66"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="13">
         <v>0.5</v>
       </c>
-      <c r="I17" s="18">
-        <f t="shared" si="1"/>
-        <v>14.5</v>
-      </c>
-      <c r="J17" s="18">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="K17" s="18">
-        <f t="shared" si="1"/>
-        <v>43.6</v>
-      </c>
-      <c r="L17" s="18">
-        <f t="shared" si="1"/>
-        <v>58.1</v>
-      </c>
-      <c r="M17" s="18">
-        <f t="shared" si="1"/>
-        <v>72.599999999999994</v>
+      <c r="I17" s="14">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="J17" s="14">
+        <f t="shared" si="1"/>
+        <v>2.7</v>
+      </c>
+      <c r="K17" s="14">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="L17" s="14">
+        <f t="shared" si="1"/>
+        <v>5.4</v>
+      </c>
+      <c r="M17" s="14">
+        <f t="shared" si="1"/>
+        <v>6.7</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="34"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="35"/>
-      <c r="H18" s="17">
+      <c r="B18" s="29"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="30"/>
+      <c r="H18" s="13">
         <v>0.55000000000000004</v>
       </c>
-      <c r="I18" s="18">
-        <f t="shared" si="1"/>
-        <v>13.2</v>
-      </c>
-      <c r="J18" s="18">
-        <f t="shared" si="1"/>
-        <v>26.4</v>
-      </c>
-      <c r="K18" s="18">
-        <f t="shared" si="1"/>
-        <v>39.6</v>
-      </c>
-      <c r="L18" s="18">
-        <f t="shared" si="1"/>
-        <v>52.8</v>
-      </c>
-      <c r="M18" s="18">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="36"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="39"/>
-      <c r="H19" s="17">
+      <c r="I18" s="14">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="J18" s="14">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="K18" s="14">
+        <f t="shared" si="1"/>
+        <v>3.7</v>
+      </c>
+      <c r="L18" s="14">
+        <f t="shared" si="1"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M18" s="14">
+        <f t="shared" si="1"/>
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B19" s="31"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="34"/>
+      <c r="H19" s="13">
         <v>0.6</v>
       </c>
-      <c r="I19" s="18">
-        <f t="shared" si="1"/>
-        <v>12.1</v>
-      </c>
-      <c r="J19" s="18">
-        <f t="shared" si="1"/>
-        <v>24.2</v>
-      </c>
-      <c r="K19" s="18">
-        <f t="shared" si="1"/>
-        <v>36.299999999999997</v>
-      </c>
-      <c r="L19" s="18">
-        <f t="shared" si="1"/>
-        <v>48.4</v>
-      </c>
-      <c r="M19" s="18">
-        <f t="shared" si="1"/>
-        <v>60.5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F20" s="40"/>
-      <c r="H20" s="17">
+      <c r="I19" s="14">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J19" s="14">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K19" s="14">
+        <f t="shared" si="1"/>
+        <v>3.4</v>
+      </c>
+      <c r="L19" s="14">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="M19" s="14">
+        <f t="shared" si="1"/>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F20" s="35"/>
+      <c r="H20" s="13">
         <v>0.65</v>
       </c>
-      <c r="I20" s="18">
-        <f t="shared" si="1"/>
-        <v>11.2</v>
-      </c>
-      <c r="J20" s="18">
-        <f t="shared" si="1"/>
-        <v>22.3</v>
-      </c>
-      <c r="K20" s="18">
-        <f t="shared" si="1"/>
-        <v>33.5</v>
-      </c>
-      <c r="L20" s="18">
-        <f t="shared" si="1"/>
-        <v>44.7</v>
-      </c>
-      <c r="M20" s="18">
-        <f t="shared" si="1"/>
-        <v>55.8</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="47"/>
-      <c r="C21" s="53" t="s">
+      <c r="I20" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="14">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="K20" s="14">
+        <f t="shared" si="1"/>
+        <v>3.1</v>
+      </c>
+      <c r="L20" s="14">
+        <f t="shared" si="1"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M20" s="14">
+        <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B21" s="42"/>
+      <c r="C21" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="48"/>
-      <c r="H21" s="17">
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="43"/>
+      <c r="H21" s="13">
         <v>0.7</v>
       </c>
-      <c r="I21" s="18">
-        <f t="shared" si="1"/>
-        <v>10.4</v>
-      </c>
-      <c r="J21" s="18">
-        <f t="shared" si="1"/>
-        <v>20.7</v>
-      </c>
-      <c r="K21" s="18">
-        <f t="shared" si="1"/>
-        <v>31.1</v>
-      </c>
-      <c r="L21" s="18">
-        <f t="shared" si="1"/>
-        <v>41.5</v>
-      </c>
-      <c r="M21" s="18">
-        <f t="shared" si="1"/>
-        <v>51.9</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="14">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="J21" s="14">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+      <c r="K21" s="14">
+        <f t="shared" si="1"/>
+        <v>2.9</v>
+      </c>
+      <c r="L21" s="14">
+        <f t="shared" si="1"/>
+        <v>3.8</v>
+      </c>
+      <c r="M21" s="14">
+        <f t="shared" si="1"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="9"/>
       <c r="F22" s="6"/>
-      <c r="H22" s="17">
+      <c r="H22" s="13">
         <v>0.75</v>
       </c>
-      <c r="I22" s="18">
-        <f t="shared" si="1"/>
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="J22" s="18">
-        <f t="shared" si="1"/>
-        <v>19.399999999999999</v>
-      </c>
-      <c r="K22" s="18">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="L22" s="18">
-        <f t="shared" si="1"/>
-        <v>38.700000000000003</v>
-      </c>
-      <c r="M22" s="18">
-        <f t="shared" si="1"/>
-        <v>48.4</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I22" s="14">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="J22" s="14">
+        <f t="shared" si="1"/>
+        <v>1.8</v>
+      </c>
+      <c r="K22" s="14">
+        <f t="shared" si="1"/>
+        <v>2.7</v>
+      </c>
+      <c r="L22" s="14">
+        <f t="shared" si="1"/>
+        <v>3.6</v>
+      </c>
+      <c r="M22" s="14">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="49">
         <v>8</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E23" s="21" t="s">
         <v>20</v>
       </c>
       <c r="F23" s="6"/>
-      <c r="H23" s="17">
+      <c r="H23" s="13">
         <v>0.8</v>
       </c>
-      <c r="I23" s="18">
-        <f t="shared" si="1"/>
-        <v>9.1</v>
-      </c>
-      <c r="J23" s="18">
-        <f t="shared" si="1"/>
-        <v>18.2</v>
-      </c>
-      <c r="K23" s="18">
-        <f t="shared" si="1"/>
-        <v>27.2</v>
-      </c>
-      <c r="L23" s="18">
-        <f t="shared" si="1"/>
-        <v>36.299999999999997</v>
-      </c>
-      <c r="M23" s="18">
-        <f t="shared" si="1"/>
-        <v>45.4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I23" s="14">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="J23" s="14">
+        <f t="shared" si="1"/>
+        <v>1.7</v>
+      </c>
+      <c r="K23" s="14">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="L23" s="14">
+        <f t="shared" si="1"/>
+        <v>3.4</v>
+      </c>
+      <c r="M23" s="14">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="6"/>
-      <c r="H24" s="17">
+      <c r="H24" s="13">
         <v>0.85</v>
       </c>
-      <c r="I24" s="18">
-        <f t="shared" si="1"/>
-        <v>8.5</v>
-      </c>
-      <c r="J24" s="18">
-        <f t="shared" si="1"/>
-        <v>17.100000000000001</v>
-      </c>
-      <c r="K24" s="18">
-        <f t="shared" si="1"/>
-        <v>25.6</v>
-      </c>
-      <c r="L24" s="18">
-        <f t="shared" si="1"/>
-        <v>34.200000000000003</v>
-      </c>
-      <c r="M24" s="18">
-        <f t="shared" si="1"/>
-        <v>42.7</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I24" s="14">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="J24" s="14">
+        <f t="shared" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="K24" s="14">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="L24" s="14">
+        <f t="shared" si="1"/>
+        <v>3.2</v>
+      </c>
+      <c r="M24" s="14">
+        <f t="shared" si="1"/>
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
-      <c r="C25" s="59" t="str">
+      <c r="C25" s="61" t="str">
         <f>"Required output % to replace " &amp; D7 &amp; " PPM in " &amp; D23 &amp; " hours"</f>
-        <v>Required output % to replace 2 PPM in 8 hours</v>
-      </c>
-      <c r="D25" s="60"/>
-      <c r="E25" s="61"/>
+        <v>Required output % to replace 1 PPM in 8 hours</v>
+      </c>
+      <c r="D25" s="62"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="6"/>
-      <c r="H25" s="17">
+      <c r="H25" s="13">
         <v>0.9</v>
       </c>
-      <c r="I25" s="18">
-        <f t="shared" si="1"/>
-        <v>8.1</v>
-      </c>
-      <c r="J25" s="18">
-        <f t="shared" si="1"/>
-        <v>16.100000000000001</v>
-      </c>
-      <c r="K25" s="18">
-        <f t="shared" si="1"/>
-        <v>24.2</v>
-      </c>
-      <c r="L25" s="18">
-        <f t="shared" si="1"/>
-        <v>32.299999999999997</v>
-      </c>
-      <c r="M25" s="18">
-        <f t="shared" si="1"/>
-        <v>40.299999999999997</v>
+      <c r="I25" s="14">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="J25" s="14">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="K25" s="14">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="L25" s="14">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="M25" s="14">
+        <f t="shared" si="1"/>
+        <v>3.7</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="69">
-        <f>D7/(D23*D10)</f>
-        <v>1.8150652922797552</v>
-      </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="71"/>
+      <c r="C26" s="71">
+        <f>CEILING(D7/(D23*D10),0.05)</f>
+        <v>0.1</v>
+      </c>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
       <c r="F26" s="6"/>
-      <c r="H26" s="17">
+      <c r="H26" s="13">
         <v>0.95</v>
       </c>
-      <c r="I26" s="18">
-        <f t="shared" si="1"/>
-        <v>7.6</v>
-      </c>
-      <c r="J26" s="18">
-        <f t="shared" si="1"/>
-        <v>15.3</v>
-      </c>
-      <c r="K26" s="18">
-        <f t="shared" si="1"/>
-        <v>22.9</v>
-      </c>
-      <c r="L26" s="18">
-        <f t="shared" si="1"/>
-        <v>30.6</v>
-      </c>
-      <c r="M26" s="18">
-        <f t="shared" si="1"/>
-        <v>38.200000000000003</v>
+      <c r="I26" s="14">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="J26" s="14">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="K26" s="14">
+        <f t="shared" si="1"/>
+        <v>2.1</v>
+      </c>
+      <c r="L26" s="14">
+        <f t="shared" si="1"/>
+        <v>2.8</v>
+      </c>
+      <c r="M26" s="14">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
-      <c r="C27" s="72"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="74"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="76"/>
       <c r="F27" s="6"/>
-      <c r="H27" s="17">
+      <c r="H27" s="13">
         <v>1</v>
       </c>
-      <c r="I27" s="18">
-        <f t="shared" si="1"/>
-        <v>7.3</v>
-      </c>
-      <c r="J27" s="18">
-        <f t="shared" si="1"/>
-        <v>14.5</v>
-      </c>
-      <c r="K27" s="18">
-        <f t="shared" si="1"/>
-        <v>21.8</v>
-      </c>
-      <c r="L27" s="18">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="M27" s="18">
-        <f t="shared" si="1"/>
-        <v>36.299999999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="I27" s="14">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="J27" s="14">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+      <c r="K27" s="14">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L27" s="14">
+        <f t="shared" si="1"/>
+        <v>2.7</v>
+      </c>
+      <c r="M27" s="14">
+        <f t="shared" si="1"/>
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B28" s="3"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="7"/>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="52"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="28" t="s">
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="53"/>
+      <c r="M28" s="54"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B30" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="26"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="44" t="s">
+      <c r="D30" s="22"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B31" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="44" t="s">
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B32" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="26"/>
-    </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C34" s="28" t="s">
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D33" s="22"/>
+    </row>
+    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>36</v>
       </c>
@@ -1962,6 +2166,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="F340" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="10">
     <mergeCell ref="H28:M28"/>
     <mergeCell ref="C21:E21"/>
@@ -1974,6 +2179,19 @@
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C16:E16"/>
   </mergeCells>
+  <conditionalFormatting sqref="I8:M27">
+    <cfRule type="expression" dxfId="5" priority="2">
+      <formula>I$7=$D$7</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>AND($H8=$D$14/100,I$7=$D$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="D23">
+      <formula1>SUM($C$26)&lt;=1</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1"/>
     <hyperlink ref="C32:D32" r:id="rId2" display="Chlorine / CYA Chart"/>
@@ -1982,15 +2200,135 @@
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
+  <legacyDrawing r:id="rId7"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId8" name="Scroll Bar 1">
+              <controlPr defaultSize="0" print="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>342900</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1026" r:id="rId9" name="Scroll Bar 2">
+              <controlPr defaultSize="0" print="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>276225</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>28575</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>342900</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="cellIs" priority="8" operator="greaterThanOrEqual" id="{F1A9E657-D870-454E-93EA-A2DEFB150498}">
+            <xm:f>Setup!$B$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="9" operator="greaterThan" id="{DACBD46E-4419-4E7D-A4B9-B3C646CC984A}">
+            <xm:f>Setup!$A$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C6500"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFFFEB9C"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <x14:cfRule type="cellIs" priority="10" operator="lessThanOrEqual" id="{26F9F61F-85B1-4C05-B967-9A76B675B3E9}">
+            <xm:f>Setup!$A$2</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>I8:M27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="colorScale" priority="3" id="{6DA838B8-46D3-4AAD-A1DE-A01C3B0EED66}">
+            <x14:colorScale>
+              <x14:cfvo type="formula">
+                <xm:f>Setup!$A$2</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percentile">
+                <xm:f>50</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="formula">
+                <xm:f>Setup!$B$2</xm:f>
+              </x14:cfvo>
+              <x14:color rgb="FF63BE7B"/>
+              <x14:color rgb="FFFFEB84"/>
+              <x14:color rgb="FFF8696B"/>
+            </x14:colorScale>
+          </x14:cfRule>
+          <xm:sqref>C17:E18</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1999,7 +2337,7 @@
     <col min="3" max="3" width="110" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -2010,115 +2348,187 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="50">
         <v>42559</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="27">
+      <c r="B3" s="50">
         <v>42571</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="27">
+      <c r="B4" s="50">
         <v>42604</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="27">
+      <c r="B5" s="50">
         <v>42604</v>
       </c>
       <c r="C5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="50">
         <v>42604</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="27">
+      <c r="B7" s="50">
         <v>42604</v>
       </c>
       <c r="C7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="27">
+      <c r="B8" s="50">
         <v>42604</v>
       </c>
       <c r="C8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="50">
         <v>42604</v>
       </c>
       <c r="C9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="50">
         <v>42604</v>
       </c>
       <c r="C10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="50">
         <v>42604</v>
       </c>
       <c r="C11" t="s">
         <v>50</v>
       </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="50">
+        <v>43153</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="50"/>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="50"/>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="50"/>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection password="F340" sheet="1" objects="1" scenarios="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SWGCalculator.xlsx
+++ b/SWGCalculator.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="22650" yWindow="0" windowWidth="3615" windowHeight="8505"/>
@@ -12,8 +12,9 @@
     <sheet name="Setup" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Max_Runtime">Runtime[Max Runtime]</definedName>
-    <definedName name="Min_Runtime">Runtime[Min Runtime]</definedName>
+    <definedName name="Max_Runtime">Runtime[Max possible (24)]</definedName>
+    <definedName name="Min_Runtime">Runtime[Max acceptable]</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Calculator!$B$1:$M$28</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
   <si>
     <t>FC</t>
   </si>
@@ -132,24 +133,9 @@
     <t>Instructions:</t>
   </si>
   <si>
-    <t>1. Enter your Pool Volume in gallons in cell D4</t>
-  </si>
-  <si>
-    <t>2. Enter your Average 24 Hr FC Demand in cell D5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Enter the production of your SWG in lbs in cell D6.  See link for this value.  </t>
-  </si>
-  <si>
-    <t>4. Enter a SWG Output % in cell D10.  Use this % and the Hours output to set your SWG &amp; Pump Run Time.</t>
-  </si>
-  <si>
     <t>or</t>
   </si>
   <si>
-    <t>4. Enter a Desired Run Time in cell D16.  Use these hours and the Output % to set your SWG &amp; Pump Run Time.</t>
-  </si>
-  <si>
     <t>4. Use the SWG Run Time Chart to determine the Output % &amp; Pump Run Time based on the FC PPM Demand</t>
   </si>
   <si>
@@ -180,12 +166,6 @@
     <t>Updated header / footer and print settings</t>
   </si>
   <si>
-    <t>Min Runtime</t>
-  </si>
-  <si>
-    <t>Max Runtime</t>
-  </si>
-  <si>
     <t>Beta 1.3</t>
   </si>
   <si>
@@ -202,6 +182,72 @@
   </si>
   <si>
     <t>Modified by Lightmaster</t>
+  </si>
+  <si>
+    <t>1. Enter your Pool Volume in gallons in cell D6</t>
+  </si>
+  <si>
+    <t>2. Enter your Average 24 Hr FC Demand in cell D7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Enter the production of your SWG in lbs in cell D8.  See link for this value.  </t>
+  </si>
+  <si>
+    <t>4. Enter a SWG Output % in cell D14.  Use this % and the Hours output to set your SWG &amp; Pump Run Time.</t>
+  </si>
+  <si>
+    <t>4. Enter a Desired Run Time in cell D23.  Use these hours and the Output % to set your SWG &amp; Pump Run Time.</t>
+  </si>
+  <si>
+    <t>Green: Acceptable</t>
+  </si>
+  <si>
+    <t>Yellow: Possible, but exceeds acceptable</t>
+  </si>
+  <si>
+    <t>Red: Physically impossible</t>
+  </si>
+  <si>
+    <t>Beta 1.4</t>
+  </si>
+  <si>
+    <t>Update instructions</t>
+  </si>
+  <si>
+    <t>Add description of colored ranges</t>
+  </si>
+  <si>
+    <t>Max acceptable</t>
+  </si>
+  <si>
+    <t>Max possible (24)</t>
+  </si>
+  <si>
+    <t>(Green)</t>
+  </si>
+  <si>
+    <t>(Red)</t>
+  </si>
+  <si>
+    <t>Max Acceptable (Green): Enter the highest runtime you'd consider to be acceptable. IE: 10 means you want all hours below 10 to be acceptable</t>
+  </si>
+  <si>
+    <t>Max Possible (Red): Maximum physically possible time to be able to run your pump in a 24 hour period. IE: 24 since you can't physically run it more than 24 hours in a day.</t>
+  </si>
+  <si>
+    <t>Renamed "Min Runtime" to "Max Acceptable" and Max Runtime to Max Possible (24)</t>
+  </si>
+  <si>
+    <t>"SWG % Calculator"</t>
+  </si>
+  <si>
+    <t>SWG % increments for</t>
+  </si>
+  <si>
+    <t>SWG % increments: Set this to whatever percentage increments your SWG allows. Most allow adjustment by 5% increments, although some allow 1% and some only 10%.</t>
+  </si>
+  <si>
+    <t>Added setting for SWG % increments, only effects "Calculate SWG %" in bottom left</t>
   </si>
 </sst>
 </file>
@@ -217,7 +263,7 @@
     <numFmt numFmtId="168" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,8 +362,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,6 +419,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBDD7EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,7 +699,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -791,6 +871,46 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -798,10 +918,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <numFmt numFmtId="168" formatCode="mm/dd/yyyy"/>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -833,6 +950,12 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <i/>
+      </font>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFFF0000"/>
@@ -851,10 +974,19 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i/>
-      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="mm/dd/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -875,11 +1007,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$D$14" horiz="1" inc="5" max="100" page="10" val="10"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$D$14" horiz="1" inc="5" max="100" page="10" val="15"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$D$23" horiz="1" max="24" page="2" val="8"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$D$23" horiz="1" max="24" page="2" val="4"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -970,11 +1102,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C15" totalsRowShown="0">
-  <autoFilter ref="A1:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C19" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="Version"/>
-    <tableColumn id="3" name="Date" dataDxfId="0"/>
+    <tableColumn id="3" name="Date" dataDxfId="9"/>
     <tableColumn id="2" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -982,10 +1113,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Runtime" displayName="Runtime" ref="A1:B2" totalsRowShown="0">
-  <tableColumns count="2">
-    <tableColumn id="1" name="Min Runtime"/>
-    <tableColumn id="2" name="Max Runtime"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Runtime" displayName="Runtime" ref="A1:C3" totalsRowShown="0" dataDxfId="6">
+  <tableColumns count="3">
+    <tableColumn id="1" name="Max acceptable" dataDxfId="8"/>
+    <tableColumn id="2" name="Max possible (24)" dataDxfId="7"/>
+    <tableColumn id="3" name="SWG % increments for" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1280,7 +1412,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1289,10 +1421,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:M42"/>
+  <dimension ref="B1:Q43"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1307,9 +1439,9 @@
     <col min="9" max="13" width="7.7109375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" ht="23.25" x14ac:dyDescent="0.3">
       <c r="B1" s="24" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1322,16 +1454,16 @@
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
       <c r="M1" s="25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="37" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="E2" s="37"/>
       <c r="F2" s="37"/>
@@ -1345,10 +1477,10 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="21" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:17" ht="21" x14ac:dyDescent="0.3">
       <c r="B4" s="27"/>
       <c r="C4" s="77" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D4" s="77"/>
       <c r="E4" s="77"/>
@@ -1362,7 +1494,7 @@
       <c r="L4" s="57"/>
       <c r="M4" s="57"/>
     </row>
-    <row r="5" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="29"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -1376,7 +1508,7 @@
       <c r="L5" s="16"/>
       <c r="M5" s="17"/>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B6" s="29"/>
       <c r="C6" s="9" t="s">
         <v>3</v>
@@ -1400,7 +1532,7 @@
       <c r="L6" s="59"/>
       <c r="M6" s="60"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="29"/>
       <c r="C7" s="9" t="s">
         <v>13</v>
@@ -1432,7 +1564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="29"/>
       <c r="C8" s="11" t="s">
         <v>11</v>
@@ -1468,8 +1600,14 @@
         <f t="shared" si="0"/>
         <v>67.099999999999994</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="84" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="83"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="83"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="29"/>
       <c r="C9" s="9" t="s">
         <v>10</v>
@@ -1506,8 +1644,14 @@
         <f t="shared" si="1"/>
         <v>33.5</v>
       </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="31"/>
       <c r="C10" s="32" t="s">
         <v>2</v>
@@ -1544,8 +1688,14 @@
         <f t="shared" si="1"/>
         <v>22.4</v>
       </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" s="83"/>
+      <c r="P10" s="83"/>
+      <c r="Q10" s="83"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="F11" s="35"/>
       <c r="G11" s="26"/>
       <c r="H11" s="13">
@@ -1572,10 +1722,10 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="64" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D12" s="64"/>
       <c r="E12" s="64"/>
@@ -1605,7 +1755,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B13" s="29"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -1636,13 +1786,13 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B14" s="29"/>
       <c r="C14" s="9" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="48">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>12</v>
@@ -1673,7 +1823,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="15" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="29"/>
       <c r="C15" s="2"/>
       <c r="D15" s="5"/>
@@ -1704,11 +1854,11 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="16" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="29"/>
       <c r="C16" s="61" t="str">
         <f>"Run time to replace " &amp; D7 &amp; " PPM @ " &amp; D14 &amp; "% output"</f>
-        <v>Run time to replace 1 PPM @ 10% output</v>
+        <v>Run time to replace 1 PPM @ 15% output</v>
       </c>
       <c r="D16" s="62"/>
       <c r="E16" s="63"/>
@@ -1741,8 +1891,8 @@
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="29"/>
       <c r="C17" s="65">
-        <f>ROUND((D7/D10)/D14*100,1)</f>
-        <v>6.7</v>
+        <f>IFERROR(ROUND((D7/D10)/D14*100,1),"Enter an output greater than 0%")</f>
+        <v>4.5</v>
       </c>
       <c r="D17" s="66"/>
       <c r="E17" s="67"/>
@@ -1861,7 +2011,7 @@
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B21" s="42"/>
       <c r="C21" s="55" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D21" s="55"/>
       <c r="E21" s="55"/>
@@ -1926,7 +2076,7 @@
         <v>19</v>
       </c>
       <c r="D23" s="49">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>20</v>
@@ -1990,7 +2140,7 @@
       <c r="B25" s="1"/>
       <c r="C25" s="61" t="str">
         <f>"Required output % to replace " &amp; D7 &amp; " PPM in " &amp; D23 &amp; " hours"</f>
-        <v>Required output % to replace 1 PPM in 8 hours</v>
+        <v>Required output % to replace 1 PPM in 4 hours</v>
       </c>
       <c r="D25" s="62"/>
       <c r="E25" s="63"/>
@@ -2022,8 +2172,8 @@
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="71">
-        <f>CEILING(D7/(D23*D10),0.05)</f>
-        <v>0.1</v>
+        <f>CEILING(D7/(D23*D10),Setup!$C$3)</f>
+        <v>0.2</v>
       </c>
       <c r="D26" s="72"/>
       <c r="E26" s="73"/>
@@ -2097,77 +2247,188 @@
       <c r="L28" s="53"/>
       <c r="M28" s="54"/>
     </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="23" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D30" s="22"/>
     </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B31" s="39" t="s">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B31" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="39"/>
+      <c r="C31" s="90"/>
       <c r="D31" s="39"/>
     </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B32" s="39" t="s">
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B32" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="39"/>
+      <c r="C32" s="90"/>
       <c r="D32" s="39"/>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="91"/>
       <c r="D33" s="22"/>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C34" s="23" t="s">
+    <row r="34" spans="2:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="92"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="22"/>
+    </row>
+    <row r="35" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="78" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+    </row>
+    <row r="36" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="81" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="81"/>
+      <c r="L36" s="81"/>
+      <c r="M36" s="81"/>
+    </row>
+    <row r="37" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
+      <c r="L37" s="81"/>
+      <c r="M37" s="81"/>
+    </row>
+    <row r="38" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="81" t="s">
+        <v>54</v>
+      </c>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="81"/>
+      <c r="L38" s="81"/>
+      <c r="M38" s="81"/>
+    </row>
+    <row r="39" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="81" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
+      <c r="L39" s="81"/>
+      <c r="M39" s="81"/>
+    </row>
+    <row r="40" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="79" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="80"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="80"/>
+      <c r="M40" s="80"/>
+    </row>
+    <row r="41" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="81" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="81"/>
+      <c r="L41" s="81"/>
+      <c r="M41" s="81"/>
+    </row>
+    <row r="42" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="79" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="79"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="80"/>
+    </row>
+    <row r="43" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="81" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>41</v>
-      </c>
+      <c r="D43" s="81"/>
+      <c r="E43" s="81"/>
+      <c r="F43" s="81"/>
+      <c r="G43" s="81"/>
+      <c r="H43" s="81"/>
+      <c r="I43" s="81"/>
+      <c r="J43" s="81"/>
+      <c r="K43" s="81"/>
+      <c r="L43" s="81"/>
+      <c r="M43" s="81"/>
     </row>
   </sheetData>
-  <sheetProtection password="F340" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="10">
+  <sheetProtection password="ECDE" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="22">
+    <mergeCell ref="C43:M43"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="N9:Q9"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="C36:M36"/>
+    <mergeCell ref="C37:M37"/>
+    <mergeCell ref="C38:M38"/>
+    <mergeCell ref="C39:M39"/>
+    <mergeCell ref="C41:M41"/>
     <mergeCell ref="H28:M28"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="H4:M4"/>
@@ -2180,11 +2441,11 @@
     <mergeCell ref="C16:E16"/>
   </mergeCells>
   <conditionalFormatting sqref="I8:M27">
-    <cfRule type="expression" dxfId="5" priority="2">
-      <formula>I$7=$D$7</formula>
-    </cfRule>
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND($H8=$D$14/100,I$7=$D$7)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>I$7=$D$7</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -2194,20 +2455,19 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1"/>
-    <hyperlink ref="C32:D32" r:id="rId2" display="Chlorine / CYA Chart"/>
-    <hyperlink ref="C31:D31" r:id="rId3" display="Water Balance for SWGs"/>
-    <hyperlink ref="M2" r:id="rId4"/>
+    <hyperlink ref="M2" r:id="rId2"/>
+    <hyperlink ref="B33" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
-  <legacyDrawing r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId8" name="Scroll Bar 1">
+            <control shapeId="1025" r:id="rId7" name="Scroll Bar 1">
               <controlPr defaultSize="0" print="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2229,7 +2489,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId9" name="Scroll Bar 2">
+            <control shapeId="1026" r:id="rId8" name="Scroll Bar 2">
               <controlPr defaultSize="0" print="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2257,7 +2517,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="cellIs" priority="8" operator="greaterThanOrEqual" id="{F1A9E657-D870-454E-93EA-A2DEFB150498}">
-            <xm:f>Setup!$B$2</xm:f>
+            <xm:f>Setup!$B$3</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C0006"/>
@@ -2270,7 +2530,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="9" operator="greaterThan" id="{DACBD46E-4419-4E7D-A4B9-B3C646CC984A}">
-            <xm:f>Setup!$A$2</xm:f>
+            <xm:f>Setup!$A$3</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF9C6500"/>
@@ -2283,7 +2543,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="cellIs" priority="10" operator="lessThanOrEqual" id="{26F9F61F-85B1-4C05-B967-9A76B675B3E9}">
-            <xm:f>Setup!$A$2</xm:f>
+            <xm:f>Setup!$A$3</xm:f>
             <x14:dxf>
               <font>
                 <color rgb="FF006100"/>
@@ -2301,13 +2561,13 @@
           <x14:cfRule type="colorScale" priority="3" id="{6DA838B8-46D3-4AAD-A1DE-A01C3B0EED66}">
             <x14:colorScale>
               <x14:cfvo type="formula">
-                <xm:f>Setup!$A$2</xm:f>
+                <xm:f>Setup!$A$3</xm:f>
               </x14:cfvo>
               <x14:cfvo type="percentile">
                 <xm:f>50</xm:f>
               </x14:cfvo>
               <x14:cfvo type="formula">
-                <xm:f>Setup!$B$2</xm:f>
+                <xm:f>Setup!$B$3</xm:f>
               </x14:cfvo>
               <x14:color rgb="FF63BE7B"/>
               <x14:color rgb="FFFFEB84"/>
@@ -2325,10 +2585,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2433,7 +2693,7 @@
         <v>42604</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -2444,7 +2704,7 @@
         <v>42604</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -2455,40 +2715,69 @@
         <v>42604</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B12" s="50">
         <v>43153</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B13" s="50"/>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="50"/>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" s="50"/>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B16" s="50">
+        <v>43178</v>
+      </c>
+      <c r="C16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="50"/>
+      <c r="C17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="50"/>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="50"/>
+      <c r="C19" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="F340" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="ECDE" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2499,38 +2788,69 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A8"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="88" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="86" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="89" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="82">
         <v>10</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="82">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="51"/>
+      <c r="C3" s="87">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="51" t="s">
+        <v>72</v>
+      </c>
     </row>
   </sheetData>
+  <sheetProtection password="ECDE" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/SWGCalculator.xlsx
+++ b/SWGCalculator.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
   <si>
     <t>FC</t>
   </si>
@@ -208,9 +208,6 @@
     <t>Red: Physically impossible</t>
   </si>
   <si>
-    <t>Beta 1.4</t>
-  </si>
-  <si>
     <t>Update instructions</t>
   </si>
   <si>
@@ -248,6 +245,21 @@
   </si>
   <si>
     <t>Added setting for SWG % increments, only effects "Calculate SWG %" in bottom left</t>
+  </si>
+  <si>
+    <t>1.4.1</t>
+  </si>
+  <si>
+    <t>Recommended Chemical Levels</t>
+  </si>
+  <si>
+    <t>Version 1.4.1</t>
+  </si>
+  <si>
+    <t>Fixed Helpful Links hyperlinks</t>
+  </si>
+  <si>
+    <t>Added link for Recommended Pool Levels by Surface Type</t>
   </si>
 </sst>
 </file>
@@ -747,9 +759,6 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -767,7 +776,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -793,98 +801,13 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -902,14 +825,105 @@
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -919,6 +933,21 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="mm/dd/yyyy"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -973,21 +1002,6 @@
         <horizontal/>
       </border>
     </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="mm/dd/yyyy"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1007,11 +1021,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$D$14" horiz="1" inc="5" max="100" page="10" val="15"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$D$14" horiz="1" inc="5" max="100" page="10" val="40"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$D$23" horiz="1" max="24" page="2" val="4"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="16" fmlaLink="$D$23" horiz="1" max="24" page="2" val="6"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1102,10 +1116,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C19" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C21" totalsRowShown="0">
   <tableColumns count="3">
     <tableColumn id="1" name="Version"/>
-    <tableColumn id="3" name="Date" dataDxfId="9"/>
+    <tableColumn id="3" name="Date" dataDxfId="4"/>
     <tableColumn id="2" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1113,11 +1127,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Runtime" displayName="Runtime" ref="A1:C3" totalsRowShown="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Runtime" displayName="Runtime" ref="A1:C3" totalsRowShown="0" dataDxfId="3">
   <tableColumns count="3">
-    <tableColumn id="1" name="Max acceptable" dataDxfId="8"/>
-    <tableColumn id="2" name="Max possible (24)" dataDxfId="7"/>
-    <tableColumn id="3" name="SWG % increments for" dataDxfId="5"/>
+    <tableColumn id="1" name="Max acceptable" dataDxfId="2"/>
+    <tableColumn id="2" name="Max possible (24)" dataDxfId="1"/>
+    <tableColumn id="3" name="SWG % increments for" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1421,10 +1435,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:Q43"/>
+  <dimension ref="B1:Q44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1439,7 +1453,7 @@
     <col min="9" max="13" width="7.7109375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="23.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:17" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B1" s="24" t="s">
         <v>38</v>
       </c>
@@ -1452,55 +1466,55 @@
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="2:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="37" t="s">
+      <c r="L1" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="M1" s="63"/>
+    </row>
+    <row r="2" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37" t="s">
+      <c r="C2" s="36"/>
+      <c r="D2" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38" t="s">
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:17" ht="21" x14ac:dyDescent="0.3">
-      <c r="B4" s="27"/>
-      <c r="C4" s="77" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="28"/>
-      <c r="H4" s="56" t="s">
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="27"/>
+      <c r="H4" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
     </row>
     <row r="5" spans="2:17" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="29"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="26"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="25"/>
       <c r="H5" s="18"/>
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
@@ -1509,535 +1523,535 @@
       <c r="M5" s="17"/>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B6" s="29"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="45">
-        <v>6700</v>
+      <c r="D6" s="43">
+        <v>10000</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="26"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
-      <c r="M6" s="60"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="68"/>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="46">
-        <v>1</v>
+      <c r="D7" s="44">
+        <v>2</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="26"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="44">
+      <c r="I7" s="42">
         <v>1</v>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="42">
         <v>2</v>
       </c>
-      <c r="K7" s="44">
+      <c r="K7" s="42">
         <v>3</v>
       </c>
-      <c r="L7" s="44">
+      <c r="L7" s="42">
         <v>4</v>
       </c>
-      <c r="M7" s="44">
+      <c r="M7" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="47">
+      <c r="D8" s="45">
         <v>2</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="30"/>
-      <c r="G8" s="26"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="13">
         <v>0.05</v>
       </c>
       <c r="I8" s="14">
         <f>ROUND(I$7/($D$8*16/$D$6*7489.4*$H8/24),1)</f>
-        <v>13.4</v>
+        <v>20</v>
       </c>
       <c r="J8" s="14">
         <f t="shared" ref="J8:M8" si="0">ROUND(J$7/($D$8*16/$D$6*7489.4*$H8/24),1)</f>
-        <v>26.8</v>
+        <v>40.1</v>
       </c>
       <c r="K8" s="14">
         <f t="shared" si="0"/>
-        <v>40.299999999999997</v>
+        <v>60.1</v>
       </c>
       <c r="L8" s="14">
         <f t="shared" si="0"/>
-        <v>53.7</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="M8" s="14">
         <f t="shared" si="0"/>
-        <v>67.099999999999994</v>
-      </c>
-      <c r="N8" s="84" t="s">
+        <v>100.1</v>
+      </c>
+      <c r="N8" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="O8" s="83"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="83"/>
+      <c r="O8" s="82"/>
+      <c r="P8" s="82"/>
+      <c r="Q8" s="82"/>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="10">
         <f>D8*16/D6*7489.4</f>
-        <v>35.770268656716418</v>
+        <v>23.966080000000002</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="30"/>
-      <c r="G9" s="26"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="13">
         <v>0.1</v>
       </c>
       <c r="I9" s="14">
         <f t="shared" ref="I9:M27" si="1">ROUND(I$7/($D$8*16/$D$6*7489.4*$H9/24),1)</f>
-        <v>6.7</v>
+        <v>10</v>
       </c>
       <c r="J9" s="14">
         <f t="shared" si="1"/>
-        <v>13.4</v>
+        <v>20</v>
       </c>
       <c r="K9" s="14">
         <f t="shared" si="1"/>
-        <v>20.100000000000001</v>
+        <v>30</v>
       </c>
       <c r="L9" s="14">
         <f t="shared" si="1"/>
-        <v>26.8</v>
+        <v>40.1</v>
       </c>
       <c r="M9" s="14">
         <f t="shared" si="1"/>
-        <v>33.5</v>
-      </c>
-      <c r="N9" s="84" t="s">
+        <v>50.1</v>
+      </c>
+      <c r="N9" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
+      <c r="O9" s="82"/>
+      <c r="P9" s="82"/>
+      <c r="Q9" s="82"/>
     </row>
     <row r="10" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="31"/>
-      <c r="C10" s="32" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="32">
         <f>D9/24</f>
-        <v>1.4904278606965173</v>
-      </c>
-      <c r="E10" s="32" t="s">
+        <v>0.99858666666666673</v>
+      </c>
+      <c r="E10" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="26"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="13">
         <v>0.15</v>
       </c>
       <c r="I10" s="14">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>6.7</v>
       </c>
       <c r="J10" s="14">
         <f t="shared" si="1"/>
-        <v>8.9</v>
+        <v>13.4</v>
       </c>
       <c r="K10" s="14">
         <f t="shared" si="1"/>
-        <v>13.4</v>
+        <v>20</v>
       </c>
       <c r="L10" s="14">
         <f t="shared" si="1"/>
-        <v>17.899999999999999</v>
+        <v>26.7</v>
       </c>
       <c r="M10" s="14">
         <f t="shared" si="1"/>
-        <v>22.4</v>
-      </c>
-      <c r="N10" s="84" t="s">
+        <v>33.4</v>
+      </c>
+      <c r="N10" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="O10" s="83"/>
-      <c r="P10" s="83"/>
-      <c r="Q10" s="83"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F11" s="35"/>
-      <c r="G11" s="26"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="13">
         <v>0.2</v>
       </c>
       <c r="I11" s="14">
         <f t="shared" si="1"/>
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="J11" s="14">
         <f t="shared" si="1"/>
-        <v>6.7</v>
+        <v>10</v>
       </c>
       <c r="K11" s="14">
         <f t="shared" si="1"/>
-        <v>10.1</v>
+        <v>15</v>
       </c>
       <c r="L11" s="14">
         <f t="shared" si="1"/>
-        <v>13.4</v>
+        <v>20</v>
       </c>
       <c r="M11" s="14">
         <f t="shared" si="1"/>
-        <v>16.8</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="40"/>
-      <c r="C12" s="64" t="s">
+      <c r="B12" s="38"/>
+      <c r="C12" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="26"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="13">
         <v>0.25</v>
       </c>
       <c r="I12" s="14">
         <f t="shared" si="1"/>
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="J12" s="14">
         <f t="shared" si="1"/>
-        <v>5.4</v>
+        <v>8</v>
       </c>
       <c r="K12" s="14">
         <f t="shared" si="1"/>
-        <v>8.1</v>
+        <v>12</v>
       </c>
       <c r="L12" s="14">
         <f t="shared" si="1"/>
-        <v>10.7</v>
+        <v>16</v>
       </c>
       <c r="M12" s="14">
         <f t="shared" si="1"/>
-        <v>13.4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B13" s="29"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
       <c r="E13" s="9"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="26"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="13">
         <v>0.3</v>
       </c>
       <c r="I13" s="14">
         <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="J13" s="14">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>6.7</v>
       </c>
       <c r="K13" s="14">
         <f t="shared" si="1"/>
-        <v>6.7</v>
+        <v>10</v>
       </c>
       <c r="L13" s="14">
         <f t="shared" si="1"/>
-        <v>8.9</v>
+        <v>13.4</v>
       </c>
       <c r="M13" s="14">
         <f t="shared" si="1"/>
-        <v>11.2</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B14" s="29"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="48">
-        <v>15</v>
+      <c r="D14" s="46">
+        <v>40</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="26"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="13">
         <v>0.35</v>
       </c>
       <c r="I14" s="14">
         <f t="shared" si="1"/>
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="K14" s="14">
         <f t="shared" si="1"/>
-        <v>5.8</v>
+        <v>8.6</v>
       </c>
       <c r="L14" s="14">
         <f t="shared" si="1"/>
-        <v>7.7</v>
+        <v>11.4</v>
       </c>
       <c r="M14" s="14">
         <f t="shared" si="1"/>
-        <v>9.6</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="15" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="29"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="2"/>
       <c r="D15" s="5"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="26"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="13">
         <v>0.4</v>
       </c>
       <c r="I15" s="14">
         <f t="shared" si="1"/>
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="J15" s="14">
         <f t="shared" si="1"/>
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="K15" s="14">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="L15" s="14">
         <f t="shared" si="1"/>
-        <v>6.7</v>
+        <v>10</v>
       </c>
       <c r="M15" s="14">
         <f t="shared" si="1"/>
-        <v>8.4</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="16" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="29"/>
-      <c r="C16" s="61" t="str">
+      <c r="B16" s="28"/>
+      <c r="C16" s="69" t="str">
         <f>"Run time to replace " &amp; D7 &amp; " PPM @ " &amp; D14 &amp; "% output"</f>
-        <v>Run time to replace 1 PPM @ 15% output</v>
-      </c>
-      <c r="D16" s="62"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="26"/>
+        <v>Run time to replace 2 PPM @ 40% output</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="13">
         <v>0.45</v>
       </c>
       <c r="I16" s="14">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="K16" s="14">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>6.7</v>
       </c>
       <c r="L16" s="14">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8.9</v>
       </c>
       <c r="M16" s="14">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="29"/>
-      <c r="C17" s="65">
+      <c r="B17" s="28"/>
+      <c r="C17" s="73">
         <f>IFERROR(ROUND((D7/D10)/D14*100,1),"Enter an output greater than 0%")</f>
-        <v>4.5</v>
-      </c>
-      <c r="D17" s="66"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="26"/>
+        <v>5</v>
+      </c>
+      <c r="D17" s="74"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="13">
         <v>0.5</v>
       </c>
       <c r="I17" s="14">
         <f t="shared" si="1"/>
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="J17" s="14">
         <f t="shared" si="1"/>
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="K17" s="14">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L17" s="14">
         <f t="shared" si="1"/>
-        <v>5.4</v>
+        <v>8</v>
       </c>
       <c r="M17" s="14">
         <f t="shared" si="1"/>
-        <v>6.7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="29"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="30"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="29"/>
       <c r="H18" s="13">
         <v>0.55000000000000004</v>
       </c>
       <c r="I18" s="14">
         <f t="shared" si="1"/>
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" si="1"/>
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="K18" s="14">
         <f t="shared" si="1"/>
-        <v>3.7</v>
+        <v>5.5</v>
       </c>
       <c r="L18" s="14">
         <f t="shared" si="1"/>
-        <v>4.9000000000000004</v>
+        <v>7.3</v>
       </c>
       <c r="M18" s="14">
         <f t="shared" si="1"/>
-        <v>6.1</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B19" s="31"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="34"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="33"/>
       <c r="H19" s="13">
         <v>0.6</v>
       </c>
       <c r="I19" s="14">
         <f t="shared" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="J19" s="14">
         <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="K19" s="14">
         <f t="shared" si="1"/>
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="L19" s="14">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>6.7</v>
       </c>
       <c r="M19" s="14">
         <f t="shared" si="1"/>
-        <v>5.6</v>
+        <v>8.3000000000000007</v>
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F20" s="35"/>
+      <c r="F20" s="34"/>
       <c r="H20" s="13">
         <v>0.65</v>
       </c>
       <c r="I20" s="14">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J20" s="14">
         <f t="shared" si="1"/>
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="K20" s="14">
         <f t="shared" si="1"/>
-        <v>3.1</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="L20" s="14">
         <f t="shared" si="1"/>
-        <v>4.0999999999999996</v>
+        <v>6.2</v>
       </c>
       <c r="M20" s="14">
         <f t="shared" si="1"/>
-        <v>5.2</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="42"/>
-      <c r="C21" s="55" t="s">
+      <c r="B21" s="40"/>
+      <c r="C21" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="43"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="41"/>
       <c r="H21" s="13">
         <v>0.7</v>
       </c>
       <c r="I21" s="14">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="J21" s="14">
         <f t="shared" si="1"/>
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="K21" s="14">
         <f t="shared" si="1"/>
-        <v>2.9</v>
+        <v>4.3</v>
       </c>
       <c r="L21" s="14">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>5.7</v>
       </c>
       <c r="M21" s="14">
         <f t="shared" si="1"/>
-        <v>4.8</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="22" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2051,23 +2065,23 @@
       </c>
       <c r="I22" s="14">
         <f t="shared" si="1"/>
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="J22" s="14">
         <f t="shared" si="1"/>
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="K22" s="14">
         <f t="shared" si="1"/>
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="L22" s="14">
         <f t="shared" si="1"/>
-        <v>3.6</v>
+        <v>5.3</v>
       </c>
       <c r="M22" s="14">
         <f t="shared" si="1"/>
-        <v>4.5</v>
+        <v>6.7</v>
       </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
@@ -2075,8 +2089,8 @@
       <c r="C23" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="49">
-        <v>4</v>
+      <c r="D23" s="47">
+        <v>6</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>20</v>
@@ -2087,23 +2101,23 @@
       </c>
       <c r="I23" s="14">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="J23" s="14">
         <f t="shared" si="1"/>
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="K23" s="14">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>3.8</v>
       </c>
       <c r="L23" s="14">
         <f t="shared" si="1"/>
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M23" s="14">
         <f t="shared" si="1"/>
-        <v>4.2</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.2">
@@ -2117,119 +2131,119 @@
       </c>
       <c r="I24" s="14">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="J24" s="14">
         <f t="shared" si="1"/>
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="K24" s="14">
         <f t="shared" si="1"/>
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="L24" s="14">
         <f t="shared" si="1"/>
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="M24" s="14">
         <f t="shared" si="1"/>
-        <v>3.9</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
-      <c r="C25" s="61" t="str">
+      <c r="C25" s="69" t="str">
         <f>"Required output % to replace " &amp; D7 &amp; " PPM in " &amp; D23 &amp; " hours"</f>
-        <v>Required output % to replace 1 PPM in 4 hours</v>
-      </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="63"/>
+        <v>Required output % to replace 2 PPM in 6 hours</v>
+      </c>
+      <c r="D25" s="70"/>
+      <c r="E25" s="71"/>
       <c r="F25" s="6"/>
       <c r="H25" s="13">
         <v>0.9</v>
       </c>
       <c r="I25" s="14">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J25" s="14">
         <f t="shared" si="1"/>
-        <v>1.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="K25" s="14">
         <f t="shared" si="1"/>
-        <v>2.2000000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="L25" s="14">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M25" s="14">
         <f t="shared" si="1"/>
-        <v>3.7</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="71">
+      <c r="C26" s="87">
         <f>CEILING(D7/(D23*D10),Setup!$C$3)</f>
-        <v>0.2</v>
-      </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="73"/>
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="D26" s="88"/>
+      <c r="E26" s="89"/>
       <c r="F26" s="6"/>
       <c r="H26" s="13">
         <v>0.95</v>
       </c>
       <c r="I26" s="14">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J26" s="14">
         <f t="shared" si="1"/>
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="K26" s="14">
         <f t="shared" si="1"/>
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="L26" s="14">
         <f t="shared" si="1"/>
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="M26" s="14">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
-      <c r="C27" s="74"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="76"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="91"/>
+      <c r="E27" s="92"/>
       <c r="F27" s="6"/>
       <c r="H27" s="13">
         <v>1</v>
       </c>
       <c r="I27" s="14">
         <f t="shared" si="1"/>
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J27" s="14">
         <f t="shared" si="1"/>
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="K27" s="14">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27" s="14">
         <f t="shared" si="1"/>
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="M27" s="14">
         <f t="shared" si="1"/>
-        <v>3.4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.2">
@@ -2238,14 +2252,14 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="7"/>
-      <c r="H28" s="52" t="s">
+      <c r="H28" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="53"/>
-      <c r="M28" s="54"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="85"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="23" t="s">
@@ -2254,114 +2268,106 @@
       <c r="D30" s="22"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="90"/>
-      <c r="D31" s="39"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="90" t="s">
+      <c r="B32" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B33" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="90"/>
-      <c r="D32" s="39"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="91" t="s">
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="91"/>
-      <c r="D33" s="22"/>
-    </row>
-    <row r="34" spans="2:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="92"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="22"/>
-    </row>
-    <row r="35" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C35" s="78" t="s">
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+    </row>
+    <row r="35" spans="2:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="59"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="22"/>
+    </row>
+    <row r="36" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="80"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="80"/>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="80"/>
-    </row>
-    <row r="36" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="81" t="s">
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+    </row>
+    <row r="37" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="80" t="s">
         <v>52</v>
       </c>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="81"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-    </row>
-    <row r="37" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="81" t="s">
+      <c r="D37" s="80"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="80"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+    </row>
+    <row r="38" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="81"/>
-      <c r="H37" s="81"/>
-      <c r="I37" s="81"/>
-      <c r="J37" s="81"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
-    </row>
-    <row r="38" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="81" t="s">
+      <c r="D38" s="80"/>
+      <c r="E38" s="80"/>
+      <c r="F38" s="80"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="80"/>
+    </row>
+    <row r="39" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="80" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="81"/>
-      <c r="K38" s="81"/>
-      <c r="L38" s="81"/>
-      <c r="M38" s="81"/>
-    </row>
-    <row r="39" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="81" t="s">
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="80"/>
+      <c r="M39" s="80"/>
+    </row>
+    <row r="40" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="80" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="81"/>
-      <c r="H39" s="81"/>
-      <c r="I39" s="81"/>
-      <c r="J39" s="81"/>
-      <c r="K39" s="81"/>
-      <c r="L39" s="81"/>
-      <c r="M39" s="81"/>
-    </row>
-    <row r="40" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="79"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="80"/>
+      <c r="F40" s="80"/>
+      <c r="G40" s="80"/>
       <c r="H40" s="80"/>
       <c r="I40" s="80"/>
       <c r="J40" s="80"/>
@@ -2370,28 +2376,28 @@
       <c r="M40" s="80"/>
     </row>
     <row r="41" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="81" t="s">
+      <c r="C41" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+    </row>
+    <row r="42" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="81"/>
-      <c r="E41" s="81"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="81"/>
-      <c r="H41" s="81"/>
-      <c r="I41" s="81"/>
-      <c r="J41" s="81"/>
-      <c r="K41" s="81"/>
-      <c r="L41" s="81"/>
-      <c r="M41" s="81"/>
-    </row>
-    <row r="42" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="79" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="79"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="79"/>
+      <c r="D42" s="80"/>
+      <c r="E42" s="80"/>
+      <c r="F42" s="80"/>
+      <c r="G42" s="80"/>
       <c r="H42" s="80"/>
       <c r="I42" s="80"/>
       <c r="J42" s="80"/>
@@ -2400,51 +2406,68 @@
       <c r="M42" s="80"/>
     </row>
     <row r="43" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="81" t="s">
+      <c r="C43" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+    </row>
+    <row r="44" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="81"/>
-      <c r="H43" s="81"/>
-      <c r="I43" s="81"/>
-      <c r="J43" s="81"/>
-      <c r="K43" s="81"/>
-      <c r="L43" s="81"/>
-      <c r="M43" s="81"/>
+      <c r="D44" s="80"/>
+      <c r="E44" s="80"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="80"/>
     </row>
   </sheetData>
   <sheetProtection password="ECDE" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="22">
-    <mergeCell ref="C43:M43"/>
+  <mergeCells count="24">
+    <mergeCell ref="C44:M44"/>
     <mergeCell ref="N8:Q8"/>
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="C36:M36"/>
     <mergeCell ref="C37:M37"/>
     <mergeCell ref="C38:M38"/>
     <mergeCell ref="C39:M39"/>
-    <mergeCell ref="C41:M41"/>
+    <mergeCell ref="C40:M40"/>
+    <mergeCell ref="C42:M42"/>
     <mergeCell ref="H28:M28"/>
     <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C26:E27"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="L1:M1"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="I6:M6"/>
     <mergeCell ref="C25:E25"/>
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C17:E18"/>
-    <mergeCell ref="C26:E27"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C16:E16"/>
   </mergeCells>
   <conditionalFormatting sqref="I8:M27">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="9" priority="1">
       <formula>AND($H8=$D$14/100,I$7=$D$7)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="8" priority="2">
       <formula>I$7=$D$7</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2456,18 +2479,25 @@
   <hyperlinks>
     <hyperlink ref="C8" r:id="rId1"/>
     <hyperlink ref="M2" r:id="rId2"/>
-    <hyperlink ref="B33" r:id="rId3"/>
+    <hyperlink ref="B34" r:id="rId3"/>
+    <hyperlink ref="B33:C33" r:id="rId4" display="Chlorine / CYA Chart"/>
+    <hyperlink ref="B31:C31" r:id="rId5" display="Water Balance for SWGs"/>
+    <hyperlink ref="B34:C34" r:id="rId6" display="24 Hr SWG FC Production"/>
+    <hyperlink ref="B32:D32" r:id="rId7" display="Recommended Chemical Levels"/>
+    <hyperlink ref="B31:D31" r:id="rId8" display="Water Balance for SWGs"/>
+    <hyperlink ref="B33:D33" r:id="rId9" display="Chlorine / CYA Chart"/>
+    <hyperlink ref="B34:D34" r:id="rId10" display="24 Hr SWG FC Production"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
-  <legacyDrawing r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
+  <drawing r:id="rId12"/>
+  <legacyDrawing r:id="rId13"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId7" name="Scroll Bar 1">
+            <control shapeId="1025" r:id="rId14" name="Scroll Bar 1">
               <controlPr defaultSize="0" print="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2489,7 +2519,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId8" name="Scroll Bar 2">
+            <control shapeId="1026" r:id="rId15" name="Scroll Bar 2">
               <controlPr defaultSize="0" print="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2585,10 +2615,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C20" sqref="C20:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2612,7 +2642,7 @@
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="50">
+      <c r="B2" s="48">
         <v>42559</v>
       </c>
       <c r="C2" t="s">
@@ -2623,7 +2653,7 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="48">
         <v>42571</v>
       </c>
       <c r="C3" t="s">
@@ -2634,7 +2664,7 @@
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="48">
         <v>42604</v>
       </c>
       <c r="C4" t="s">
@@ -2645,7 +2675,7 @@
       <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="48">
         <v>42604</v>
       </c>
       <c r="C5" t="s">
@@ -2656,7 +2686,7 @@
       <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="48">
         <v>42604</v>
       </c>
       <c r="C6" t="s">
@@ -2667,7 +2697,7 @@
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="50">
+      <c r="B7" s="48">
         <v>42604</v>
       </c>
       <c r="C7" t="s">
@@ -2678,7 +2708,7 @@
       <c r="A8" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="50">
+      <c r="B8" s="48">
         <v>42604</v>
       </c>
       <c r="C8" t="s">
@@ -2689,7 +2719,7 @@
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="50">
+      <c r="B9" s="48">
         <v>42604</v>
       </c>
       <c r="C9" t="s">
@@ -2700,7 +2730,7 @@
       <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="50">
+      <c r="B10" s="48">
         <v>42604</v>
       </c>
       <c r="C10" t="s">
@@ -2711,7 +2741,7 @@
       <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="50">
+      <c r="B11" s="48">
         <v>42604</v>
       </c>
       <c r="C11" t="s">
@@ -2722,7 +2752,7 @@
       <c r="A12" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="50">
+      <c r="B12" s="48">
         <v>43153</v>
       </c>
       <c r="C12" t="s">
@@ -2730,57 +2760,75 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="50"/>
+      <c r="B13" s="48"/>
       <c r="C13" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="50"/>
+      <c r="B14" s="48"/>
       <c r="C14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="50"/>
+      <c r="B15" s="48"/>
       <c r="C15" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="60">
+        <v>1.4</v>
+      </c>
+      <c r="B16" s="48">
+        <v>43178</v>
+      </c>
+      <c r="C16" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="50">
-        <v>43178</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="48"/>
+      <c r="C17" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="50"/>
-      <c r="C17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="50"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="48"/>
       <c r="C18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="50"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="48"/>
       <c r="C19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>73</v>
+      </c>
+      <c r="B20" s="48">
+        <v>43238</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="48"/>
+      <c r="C21" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection password="ECDE" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2791,7 +2839,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2802,51 +2850,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="C1" s="57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="88" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="B2" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="86" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" s="89" t="s">
-        <v>70</v>
+      <c r="C2" s="58" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="82">
+      <c r="A3" s="53">
         <v>10</v>
       </c>
-      <c r="B3" s="82">
+      <c r="B3" s="53">
         <v>24</v>
       </c>
-      <c r="C3" s="87">
+      <c r="C3" s="56">
         <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
-        <v>72</v>
+      <c r="A8" s="49" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/SWGCalculator.xlsx
+++ b/SWGCalculator.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William.bailey\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5158DE-778A-4E84-9CE3-62266A940E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22650" yWindow="0" windowWidth="3615" windowHeight="8505"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculator" sheetId="1" r:id="rId1"/>
@@ -12,21 +18,45 @@
     <sheet name="Setup" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="Avg_FC_Demand">Calculator!$D$7</definedName>
+    <definedName name="Cl_Production">Calculator!$D$8</definedName>
+    <definedName name="Cl_Production_US">Setup!$B$21</definedName>
+    <definedName name="Desired_Runtime">Calculator!$D$23</definedName>
+    <definedName name="FC_Hrly_Output">Calculator!$D$10</definedName>
+    <definedName name="FC_Output">Calculator!$D$9</definedName>
+    <definedName name="Max_Acceptable">Setup!$A$3</definedName>
+    <definedName name="Max_Possible">Setup!$B$3</definedName>
     <definedName name="Max_Runtime">Runtime[Max possible (24)]</definedName>
     <definedName name="Min_Runtime">Runtime[Max acceptable]</definedName>
+    <definedName name="Pool_Size">Calculator!$D$6</definedName>
+    <definedName name="Pool_Size_US">Setup!$B$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Calculator!$B$1:$M$28</definedName>
+    <definedName name="SWG_Increments">Setup!$C$3</definedName>
+    <definedName name="SWG_Output_Percent">Calculator!$D$14</definedName>
+    <definedName name="Units">Calculator!$D$5</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="96">
   <si>
     <t>FC</t>
   </si>
@@ -40,12 +70,6 @@
     <t>Pool Size</t>
   </si>
   <si>
-    <t>Gallons</t>
-  </si>
-  <si>
-    <t>lbs</t>
-  </si>
-  <si>
     <t>Water Balance for SWGs</t>
   </si>
   <si>
@@ -136,9 +160,6 @@
     <t>or</t>
   </si>
   <si>
-    <t>4. Use the SWG Run Time Chart to determine the Output % &amp; Pump Run Time based on the FC PPM Demand</t>
-  </si>
-  <si>
     <t>Added Instructions</t>
   </si>
   <si>
@@ -184,21 +205,6 @@
     <t>Modified by Lightmaster</t>
   </si>
   <si>
-    <t>1. Enter your Pool Volume in gallons in cell D6</t>
-  </si>
-  <si>
-    <t>2. Enter your Average 24 Hr FC Demand in cell D7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Enter the production of your SWG in lbs in cell D8.  See link for this value.  </t>
-  </si>
-  <si>
-    <t>4. Enter a SWG Output % in cell D14.  Use this % and the Hours output to set your SWG &amp; Pump Run Time.</t>
-  </si>
-  <si>
-    <t>4. Enter a Desired Run Time in cell D23.  Use these hours and the Output % to set your SWG &amp; Pump Run Time.</t>
-  </si>
-  <si>
     <t>Green: Acceptable</t>
   </si>
   <si>
@@ -253,19 +259,97 @@
     <t>Recommended Chemical Levels</t>
   </si>
   <si>
-    <t>Version 1.4.1</t>
-  </si>
-  <si>
     <t>Fixed Helpful Links hyperlinks</t>
   </si>
   <si>
     <t>Added link for Recommended Pool Levels by Surface Type</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>lbs/day</t>
+  </si>
+  <si>
+    <t>US Gallons</t>
+  </si>
+  <si>
+    <t>Discussion Link</t>
+  </si>
+  <si>
+    <t>Added Metric option suggested by TimU</t>
+  </si>
+  <si>
+    <t>1.5.1</t>
+  </si>
+  <si>
+    <t>Corrected US Gallons to Liters conversion (was previously using value from Liters to British Gallons)</t>
+  </si>
+  <si>
+    <t>1.5.2</t>
+  </si>
+  <si>
+    <t>Converted most cell references to Named References to increase readability of functions.</t>
+  </si>
+  <si>
+    <t>Do not mess with the below formulas, they are used to convert the Metric units back to Imperial</t>
+  </si>
+  <si>
+    <t>2. Enter your Pool Volume in US Gallons/Liters in cell D6</t>
+  </si>
+  <si>
+    <t>gms/day</t>
+  </si>
+  <si>
+    <t>If you are using Metric but the only SWG Production numbers you can find are in lbs/day, enter the lbs/day below to convert them to grams/day.</t>
+  </si>
+  <si>
+    <t>3. Enter your Average 24 Hr FC Demand in cell D7</t>
+  </si>
+  <si>
+    <t>5. Enter a SWG Output % in cell D14.  Use this % and the Hours output to set your SWG &amp; Pump Run Time.</t>
+  </si>
+  <si>
+    <t>5. Enter a Desired Run Time in cell D23.  Use these hours and the Output % to set your SWG &amp; Pump Run Time.</t>
+  </si>
+  <si>
+    <t>5. Use the SWG Run Time Chart to determine the Output % &amp; Pump Run Time based on the FC PPM Demand</t>
+  </si>
+  <si>
+    <t>4. Enter the production of your SWG in lbs in cell D8.  See link for this value.  If you can only find the hourly chlorine rate, multiply that by 24.</t>
+  </si>
+  <si>
+    <t>5. If you have a variable speed pump, you might want to increase the Green Limit in the Setup tab since you likely run your pump longer at slower speeds.</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Conversion of Imperial/Metric to US</t>
+  </si>
+  <si>
+    <t>1.5.3</t>
+  </si>
+  <si>
+    <t>Split Imperial into US and Imperial, since US uses a different gallon from Imperial. 1 US gal = 128 fl oz; 1 Imperial gal = 160 fl oz</t>
+  </si>
+  <si>
+    <t>1. Select your prefered units (US Gallons/lbs, Imperial Gallons/lbs, or Liters/grams)</t>
+  </si>
+  <si>
+    <t>If unsure which gallon your country uses, check this Wikipeda article</t>
+  </si>
+  <si>
+    <t>Version 1.5.3</t>
+  </si>
+  <si>
+    <t>1.5.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -397,7 +481,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -446,8 +530,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -704,6 +800,83 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -711,19 +884,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -753,12 +926,12 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -768,14 +941,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="43" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -786,17 +955,17 @@
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -819,10 +988,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -831,100 +1000,126 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="7" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -933,21 +1128,6 @@
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="mm/dd/yyyy"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1002,6 +1182,21 @@
         <horizontal/>
       </border>
     </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="mm/dd/yyyy"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1041,7 +1236,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:colOff>400050</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
@@ -1052,11 +1247,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1064,6 +1262,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
@@ -1082,7 +1286,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>4</xdr:col>
-          <xdr:colOff>342900</xdr:colOff>
+          <xdr:colOff>400050</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>161925</xdr:rowOff>
         </xdr:to>
@@ -1093,11 +1297,14 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -1105,6 +1312,12 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData fPrintsWithSheet="0"/>
@@ -1116,22 +1329,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C21" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C25" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Version"/>
-    <tableColumn id="3" name="Date" dataDxfId="4"/>
-    <tableColumn id="2" name="Notes"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Version"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Date" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Runtime" displayName="Runtime" ref="A1:C3" totalsRowShown="0" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Runtime" displayName="Runtime" ref="A1:C3" totalsRowShown="0" dataDxfId="8">
   <tableColumns count="3">
-    <tableColumn id="1" name="Max acceptable" dataDxfId="2"/>
-    <tableColumn id="2" name="Max possible (24)" dataDxfId="1"/>
-    <tableColumn id="3" name="SWG % increments for" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Max acceptable" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Max possible (24)" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="SWG % increments for" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1426,19 +1639,19 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B1:Q44"/>
+  <dimension ref="B1:X46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,16 +1659,17 @@
     <col min="1" max="1" width="1.7109375" customWidth="1"/>
     <col min="2" max="2" width="1.42578125" customWidth="1"/>
     <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="1.5703125" customWidth="1"/>
     <col min="7" max="7" width="3.140625" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" style="12" bestFit="1" customWidth="1"/>
     <col min="9" max="13" width="7.7109375" style="12" customWidth="1"/>
+    <col min="22" max="22" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:24" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B1" s="24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
@@ -1466,52 +1680,64 @@
       <c r="I1" s="24"/>
       <c r="J1" s="24"/>
       <c r="K1" s="24"/>
-      <c r="L1" s="63" t="s">
-        <v>75</v>
-      </c>
-      <c r="M1" s="63"/>
-    </row>
-    <row r="2" spans="2:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" ht="21" x14ac:dyDescent="0.3">
+      <c r="L1" s="71" t="s">
+        <v>94</v>
+      </c>
+      <c r="M1" s="71"/>
+    </row>
+    <row r="2" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+    </row>
+    <row r="3" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="J3" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="88"/>
+      <c r="L3" s="88"/>
+      <c r="M3" s="88"/>
+    </row>
+    <row r="4" spans="2:24" ht="21" x14ac:dyDescent="0.35">
       <c r="B4" s="26"/>
-      <c r="C4" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
+      <c r="C4" s="87" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="27"/>
-      <c r="H4" s="64" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-    </row>
-    <row r="5" spans="2:17" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H4" s="72" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+    </row>
+    <row r="5" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="28"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="C5" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>88</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="29"/>
       <c r="G5" s="25"/>
@@ -1522,36 +1748,37 @@
       <c r="L5" s="16"/>
       <c r="M5" s="17"/>
     </row>
-    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B6" s="28"/>
       <c r="C6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="43">
+      <c r="D6" s="41">
         <v>10000</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>4</v>
+      <c r="E6" s="9" t="str">
+        <f>IF(Units="Metric","Liters",IF(Units="Imperial","Gallons","US Gallons"))</f>
+        <v>US Gallons</v>
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="25"/>
       <c r="H6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="66" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="68"/>
-    </row>
-    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="76"/>
+    </row>
+    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B7" s="28"/>
       <c r="C7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="44">
+        <v>11</v>
+      </c>
+      <c r="D7" s="42">
         <v>2</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -1560,34 +1787,35 @@
       <c r="F7" s="29"/>
       <c r="G7" s="25"/>
       <c r="H7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="42">
+        <v>14</v>
+      </c>
+      <c r="I7" s="40">
         <v>1</v>
       </c>
-      <c r="J7" s="42">
+      <c r="J7" s="40">
         <v>2</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="40">
         <v>3</v>
       </c>
-      <c r="L7" s="42">
+      <c r="L7" s="40">
         <v>4</v>
       </c>
-      <c r="M7" s="42">
+      <c r="M7" s="40">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B8" s="28"/>
       <c r="C8" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="45">
+        <v>9</v>
+      </c>
+      <c r="D8" s="43">
         <v>2</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>5</v>
+      <c r="E8" s="9" t="str">
+        <f>IF(Units="Metric","gms/day","lbs/day")</f>
+        <v>lbs/day</v>
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="25"/>
@@ -1595,11 +1823,11 @@
         <v>0.05</v>
       </c>
       <c r="I8" s="14">
-        <f>ROUND(I$7/($D$8*16/$D$6*7489.4*$H8/24),1)</f>
+        <f t="shared" ref="I8:M17" si="0">ROUND(I$7/(Cl_Production_US*16/Pool_Size_US*7489.4*$H8/24),1)</f>
         <v>20</v>
       </c>
       <c r="J8" s="14">
-        <f t="shared" ref="J8:M8" si="0">ROUND(J$7/($D$8*16/$D$6*7489.4*$H8/24),1)</f>
+        <f t="shared" si="0"/>
         <v>40.1</v>
       </c>
       <c r="K8" s="14">
@@ -1614,20 +1842,20 @@
         <f t="shared" si="0"/>
         <v>100.1</v>
       </c>
-      <c r="N8" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="O8" s="82"/>
-      <c r="P8" s="82"/>
-      <c r="Q8" s="82"/>
-    </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N8" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+    </row>
+    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B9" s="28"/>
       <c r="C9" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" s="10">
-        <f>D8*16/D6*7489.4</f>
+        <f>Cl_Production_US*16/Pool_Size_US*7489.4</f>
         <v>23.966080000000002</v>
       </c>
       <c r="E9" s="9" t="s">
@@ -1639,39 +1867,48 @@
         <v>0.1</v>
       </c>
       <c r="I9" s="14">
-        <f t="shared" ref="I9:M27" si="1">ROUND(I$7/($D$8*16/$D$6*7489.4*$H9/24),1)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J9" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="K9" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="L9" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>40.1</v>
       </c>
       <c r="M9" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>50.1</v>
       </c>
-      <c r="N9" s="81" t="s">
-        <v>58</v>
-      </c>
-      <c r="O9" s="82"/>
-      <c r="P9" s="82"/>
-      <c r="Q9" s="82"/>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="N9" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="S9" s="67"/>
+      <c r="T9" s="67"/>
+      <c r="U9" s="67"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="67"/>
+      <c r="X9" s="67"/>
+    </row>
+    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B10" s="30"/>
       <c r="C10" s="31" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="32">
-        <f>D9/24</f>
+        <f>FC_Output/24</f>
         <v>0.99858666666666673</v>
       </c>
       <c r="E10" s="31" t="s">
@@ -1683,93 +1920,104 @@
         <v>0.15</v>
       </c>
       <c r="I10" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.7</v>
       </c>
       <c r="J10" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13.4</v>
       </c>
       <c r="K10" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="L10" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26.7</v>
       </c>
       <c r="M10" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33.4</v>
       </c>
-      <c r="N10" s="81" t="s">
-        <v>59</v>
-      </c>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-    </row>
-    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F11" s="34"/>
+      <c r="N10" s="90" t="s">
+        <v>51</v>
+      </c>
+      <c r="O10" s="91"/>
+      <c r="P10" s="91"/>
+      <c r="Q10" s="91"/>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
       <c r="G11" s="25"/>
       <c r="H11" s="13">
         <v>0.2</v>
       </c>
       <c r="I11" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J11" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="K11" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="L11" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="M11" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B12" s="38"/>
-      <c r="C12" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="39"/>
+      <c r="R11" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="70"/>
+    </row>
+    <row r="12" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="36"/>
+      <c r="C12" s="80" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="37"/>
       <c r="G12" s="25"/>
       <c r="H12" s="13">
         <v>0.25</v>
       </c>
       <c r="I12" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J12" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="K12" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="L12" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="M12" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="68"/>
+      <c r="S12" s="69"/>
+      <c r="T12" s="69"/>
+      <c r="U12" s="69"/>
+      <c r="V12" s="70"/>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B13" s="28"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -1780,36 +2028,41 @@
         <v>0.3</v>
       </c>
       <c r="I13" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.3</v>
       </c>
       <c r="J13" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.7</v>
       </c>
       <c r="K13" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="L13" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13.4</v>
       </c>
       <c r="M13" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16.7</v>
       </c>
-    </row>
-    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="68"/>
+      <c r="S13" s="69"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="69"/>
+      <c r="V13" s="70"/>
+    </row>
+    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B14" s="28"/>
       <c r="C14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="46">
+        <v>7</v>
+      </c>
+      <c r="D14" s="44">
         <v>40</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F14" s="29"/>
       <c r="G14" s="25"/>
@@ -1817,27 +2070,36 @@
         <v>0.35</v>
       </c>
       <c r="I14" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.9</v>
       </c>
       <c r="J14" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.7</v>
       </c>
       <c r="K14" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.6</v>
       </c>
       <c r="L14" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11.4</v>
       </c>
       <c r="M14" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14.3</v>
       </c>
-    </row>
-    <row r="15" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R14" s="64">
+        <v>2</v>
+      </c>
+      <c r="S14" s="59" t="s">
+        <v>70</v>
+      </c>
+      <c r="T14" s="60"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="61"/>
+    </row>
+    <row r="15" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="28"/>
       <c r="C15" s="2"/>
       <c r="D15" s="5"/>
@@ -1848,105 +2110,115 @@
         <v>0.4</v>
       </c>
       <c r="I15" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="J15" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="K15" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
       <c r="L15" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="M15" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-    </row>
-    <row r="16" spans="2:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R15" s="65">
+        <f>R14*453.5924</f>
+        <v>907.1848</v>
+      </c>
+      <c r="S15" s="59" t="s">
+        <v>80</v>
+      </c>
+      <c r="T15" s="62"/>
+      <c r="U15" s="62"/>
+      <c r="V15" s="63"/>
+    </row>
+    <row r="16" spans="2:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="28"/>
-      <c r="C16" s="69" t="str">
+      <c r="C16" s="77" t="str">
         <f>"Run time to replace " &amp; D7 &amp; " PPM @ " &amp; D14 &amp; "% output"</f>
         <v>Run time to replace 2 PPM @ 40% output</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="71"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="79"/>
       <c r="F16" s="29"/>
       <c r="G16" s="25"/>
       <c r="H16" s="13">
         <v>0.45</v>
       </c>
       <c r="I16" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="J16" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.5</v>
       </c>
       <c r="K16" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.7</v>
       </c>
       <c r="L16" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8.9</v>
       </c>
       <c r="M16" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11.1</v>
       </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="28"/>
-      <c r="C17" s="73">
-        <f>IFERROR(ROUND((D7/D10)/D14*100,1),"Enter an output greater than 0%")</f>
+      <c r="C17" s="81">
+        <f>IFERROR(ROUND((Avg_FC_Demand/FC_Hrly_Output)/SWG_Output_Percent*100,1),"Enter an output greater than 0%")</f>
         <v>5</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="75"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="83"/>
       <c r="F17" s="29"/>
       <c r="G17" s="25"/>
       <c r="H17" s="13">
         <v>0.5</v>
       </c>
       <c r="I17" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J17" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="K17" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="L17" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M17" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="28"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="78"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="86"/>
       <c r="F18" s="29"/>
       <c r="H18" s="13">
         <v>0.55000000000000004</v>
       </c>
       <c r="I18" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I18:M27" si="1">ROUND(I$7/(Cl_Production_US*16/Pool_Size_US*7489.4*$H18/24),1)</f>
         <v>1.8</v>
       </c>
       <c r="J18" s="14">
@@ -1968,9 +2240,9 @@
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B19" s="30"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
       <c r="F19" s="33"/>
       <c r="H19" s="13">
         <v>0.6</v>
@@ -1997,7 +2269,6 @@
       </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="F20" s="34"/>
       <c r="H20" s="13">
         <v>0.65</v>
       </c>
@@ -2023,13 +2294,13 @@
       </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B21" s="40"/>
-      <c r="C21" s="86" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="41"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="95" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="39"/>
       <c r="H21" s="13">
         <v>0.7</v>
       </c>
@@ -2087,13 +2358,13 @@
     <row r="23" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="C23" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="47">
+        <v>17</v>
+      </c>
+      <c r="D23" s="45">
         <v>6</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F23" s="6"/>
       <c r="H23" s="13">
@@ -2152,12 +2423,12 @@
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
-      <c r="C25" s="69" t="str">
+      <c r="C25" s="77" t="str">
         <f>"Required output % to replace " &amp; D7 &amp; " PPM in " &amp; D23 &amp; " hours"</f>
         <v>Required output % to replace 2 PPM in 6 hours</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="71"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="79"/>
       <c r="F25" s="6"/>
       <c r="H25" s="13">
         <v>0.9</v>
@@ -2185,12 +2456,12 @@
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="87">
-        <f>CEILING(D7/(D23*D10),Setup!$C$3)</f>
+      <c r="C26" s="96">
+        <f>CEILING(Avg_FC_Demand/(Desired_Runtime*FC_Hrly_Output),SWG_Increments)</f>
         <v>0.35000000000000003</v>
       </c>
-      <c r="D26" s="88"/>
-      <c r="E26" s="89"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="98"/>
       <c r="F26" s="6"/>
       <c r="H26" s="13">
         <v>0.95</v>
@@ -2218,9 +2489,9 @@
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="92"/>
+      <c r="C27" s="99"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="101"/>
       <c r="F27" s="6"/>
       <c r="H27" s="13">
         <v>1</v>
@@ -2252,208 +2523,238 @@
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="7"/>
-      <c r="H28" s="83" t="s">
-        <v>18</v>
-      </c>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="85"/>
+      <c r="H28" s="92" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="93"/>
+      <c r="L28" s="93"/>
+      <c r="M28" s="94"/>
     </row>
     <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" s="23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D30" s="22"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="61" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
+      <c r="B31" s="102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B33" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B34" s="62" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-    </row>
-    <row r="35" spans="2:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="59"/>
-      <c r="C35" s="59"/>
+      <c r="B32" s="102" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+    </row>
+    <row r="35" spans="2:14" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
       <c r="D35" s="22"/>
     </row>
-    <row r="36" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-    </row>
-    <row r="37" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C37" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37" s="80"/>
-      <c r="E37" s="80"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
-    </row>
-    <row r="38" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="80"/>
-      <c r="E38" s="80"/>
-      <c r="F38" s="80"/>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="80"/>
-    </row>
-    <row r="39" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="80"/>
-      <c r="L39" s="80"/>
-      <c r="M39" s="80"/>
-    </row>
-    <row r="40" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C40" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40" s="80"/>
-      <c r="E40" s="80"/>
-      <c r="F40" s="80"/>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
-    </row>
-    <row r="41" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C41" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="52"/>
-      <c r="I41" s="52"/>
-      <c r="J41" s="52"/>
-      <c r="K41" s="52"/>
-      <c r="L41" s="52"/>
-      <c r="M41" s="52"/>
-    </row>
-    <row r="42" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="80" t="s">
-        <v>56</v>
-      </c>
-      <c r="D42" s="80"/>
-      <c r="E42" s="80"/>
-      <c r="F42" s="80"/>
-      <c r="G42" s="80"/>
-      <c r="H42" s="80"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="80"/>
-    </row>
-    <row r="43" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="52"/>
-      <c r="K43" s="52"/>
-      <c r="L43" s="52"/>
-      <c r="M43" s="52"/>
-    </row>
-    <row r="44" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C44" s="80" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="80"/>
-      <c r="E44" s="80"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="80"/>
-      <c r="K44" s="80"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="80"/>
+    <row r="36" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+    </row>
+    <row r="37" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="66" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="66"/>
+    </row>
+    <row r="38" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="66" t="s">
+        <v>79</v>
+      </c>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+    </row>
+    <row r="39" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="66"/>
+    </row>
+    <row r="40" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="66" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+    </row>
+    <row r="41" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="66" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
+    </row>
+    <row r="42" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="66" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+    </row>
+    <row r="43" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="66"/>
+    </row>
+    <row r="44" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="66"/>
+      <c r="N44" s="66"/>
+    </row>
+    <row r="45" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="66"/>
+    </row>
+    <row r="46" spans="2:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" s="66"/>
+      <c r="E46" s="66"/>
+      <c r="F46" s="66"/>
+      <c r="G46" s="66"/>
+      <c r="H46" s="66"/>
+      <c r="I46" s="66"/>
+      <c r="J46" s="66"/>
+      <c r="K46" s="66"/>
+      <c r="L46" s="66"/>
+      <c r="M46" s="66"/>
+      <c r="N46" s="66"/>
     </row>
   </sheetData>
-  <sheetProtection password="ECDE" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="24">
-    <mergeCell ref="C44:M44"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="32">
     <mergeCell ref="N8:Q8"/>
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="N10:Q10"/>
-    <mergeCell ref="C37:M37"/>
-    <mergeCell ref="C38:M38"/>
-    <mergeCell ref="C39:M39"/>
-    <mergeCell ref="C40:M40"/>
-    <mergeCell ref="C42:M42"/>
     <mergeCell ref="H28:M28"/>
     <mergeCell ref="C21:E21"/>
     <mergeCell ref="C26:E27"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="H4:M4"/>
     <mergeCell ref="I6:M6"/>
@@ -2462,42 +2763,74 @@
     <mergeCell ref="C17:E18"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C16:E16"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="C46:N46"/>
+    <mergeCell ref="R9:X9"/>
+    <mergeCell ref="C41:N41"/>
+    <mergeCell ref="C37:N37"/>
+    <mergeCell ref="C38:N38"/>
+    <mergeCell ref="C39:N39"/>
+    <mergeCell ref="C40:N40"/>
+    <mergeCell ref="C42:N42"/>
+    <mergeCell ref="C43:N43"/>
+    <mergeCell ref="C44:N44"/>
+    <mergeCell ref="C45:N45"/>
+    <mergeCell ref="R11:V13"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
   </mergeCells>
   <conditionalFormatting sqref="I8:M27">
-    <cfRule type="expression" dxfId="9" priority="1">
-      <formula>AND($H8=$D$14/100,I$7=$D$7)</formula>
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>AND($H8=SWG_Output_Percent/100,I$7=Avg_FC_Demand)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="2">
-      <formula>I$7=$D$7</formula>
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>I$7=Avg_FC_Demand</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="greaterThanOrEqual">
+      <formula>Max_Possible</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="9" operator="greaterThan">
+      <formula>Max_Acceptable</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="10" operator="lessThanOrEqual">
+      <formula>Max_Acceptable</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="D23">
+  <dataValidations count="2">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="D23" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>SUM($C$26)&lt;=1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5" xr:uid="{D8CC8EDB-3838-4A13-B11F-3C361285946C}">
+      <formula1>"US,Imperial,Metric"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1"/>
-    <hyperlink ref="M2" r:id="rId2"/>
-    <hyperlink ref="B34" r:id="rId3"/>
-    <hyperlink ref="B33:C33" r:id="rId4" display="Chlorine / CYA Chart"/>
-    <hyperlink ref="B31:C31" r:id="rId5" display="Water Balance for SWGs"/>
-    <hyperlink ref="B34:C34" r:id="rId6" display="24 Hr SWG FC Production"/>
-    <hyperlink ref="B32:D32" r:id="rId7" display="Recommended Chemical Levels"/>
-    <hyperlink ref="B31:D31" r:id="rId8" display="Water Balance for SWGs"/>
-    <hyperlink ref="B33:D33" r:id="rId9" display="Chlorine / CYA Chart"/>
-    <hyperlink ref="B34:D34" r:id="rId10" display="24 Hr SWG FC Production"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B34" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B33:C33" r:id="rId3" display="Chlorine / CYA Chart" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B31:C31" r:id="rId4" display="Water Balance for SWGs" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B34:C34" r:id="rId5" display="24 Hr SWG FC Production" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B32:D32" r:id="rId6" display="Recommended Chemical Levels" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B31:D31" r:id="rId7" display="Water Balance for SWGs" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B33:D33" r:id="rId8" display="Chlorine / CYA Chart" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B34:D34" r:id="rId9" display="24 Hr SWG FC Production" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C8" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="J3" r:id="rId11" xr:uid="{44CDD86E-1314-4190-98A7-C0A9D7723C88}"/>
+    <hyperlink ref="R9" r:id="rId12" xr:uid="{B7896238-7099-4312-A505-89D8F486B256}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
-  <drawing r:id="rId12"/>
-  <legacyDrawing r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
+  <drawing r:id="rId14"/>
+  <legacyDrawing r:id="rId15"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1025" r:id="rId14" name="Scroll Bar 1">
+            <control shapeId="1025" r:id="rId16" name="Scroll Bar 1">
               <controlPr defaultSize="0" print="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2508,7 +2841,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>342900</xdr:colOff>
+                    <xdr:colOff>400050</xdr:colOff>
                     <xdr:row>12</xdr:row>
                     <xdr:rowOff>161925</xdr:rowOff>
                   </to>
@@ -2519,7 +2852,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1026" r:id="rId15" name="Scroll Bar 2">
+            <control shapeId="1026" r:id="rId17" name="Scroll Bar 2">
               <controlPr defaultSize="0" print="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2530,7 +2863,7 @@
                   </from>
                   <to>
                     <xdr:col>4</xdr:col>
-                    <xdr:colOff>342900</xdr:colOff>
+                    <xdr:colOff>400050</xdr:colOff>
                     <xdr:row>21</xdr:row>
                     <xdr:rowOff>161925</xdr:rowOff>
                   </to>
@@ -2545,48 +2878,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="cellIs" priority="8" operator="greaterThanOrEqual" id="{F1A9E657-D870-454E-93EA-A2DEFB150498}">
-            <xm:f>Setup!$B$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C0006"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFC7CE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="9" operator="greaterThan" id="{DACBD46E-4419-4E7D-A4B9-B3C646CC984A}">
-            <xm:f>Setup!$A$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF9C6500"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFFFEB9C"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="cellIs" priority="10" operator="lessThanOrEqual" id="{26F9F61F-85B1-4C05-B967-9A76B675B3E9}">
-            <xm:f>Setup!$A$3</xm:f>
-            <x14:dxf>
-              <font>
-                <color rgb="FF006100"/>
-              </font>
-              <fill>
-                <patternFill>
-                  <bgColor rgb="FFC6EFCE"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>I8:M27</xm:sqref>
-        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="colorScale" priority="3" id="{6DA838B8-46D3-4AAD-A1DE-A01C3B0EED66}">
             <x14:colorScale>
@@ -2613,218 +2904,262 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:C21"/>
+      <selection activeCell="C22" sqref="C22:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="110" customWidth="1"/>
+    <col min="3" max="3" width="114.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="48">
+        <v>20</v>
+      </c>
+      <c r="B2" s="46">
         <v>42559</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="48">
+        <v>21</v>
+      </c>
+      <c r="B3" s="46">
         <v>42571</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="48">
+        <v>22</v>
+      </c>
+      <c r="B4" s="46">
         <v>42604</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="48">
+        <v>22</v>
+      </c>
+      <c r="B5" s="46">
         <v>42604</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="48">
+        <v>22</v>
+      </c>
+      <c r="B6" s="46">
         <v>42604</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="48">
+        <v>22</v>
+      </c>
+      <c r="B7" s="46">
         <v>42604</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="48">
+        <v>22</v>
+      </c>
+      <c r="B8" s="46">
         <v>42604</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="48">
+        <v>22</v>
+      </c>
+      <c r="B9" s="46">
         <v>42604</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="48">
+        <v>22</v>
+      </c>
+      <c r="B10" s="46">
         <v>42604</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="48">
+        <v>22</v>
+      </c>
+      <c r="B11" s="46">
         <v>42604</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="46">
+        <v>43153</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="46"/>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="46"/>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="46"/>
+      <c r="C15" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="48">
-        <v>43153</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="48"/>
-      <c r="C13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="48"/>
-      <c r="C14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="60">
+      <c r="A16" s="58">
         <v>1.4</v>
       </c>
-      <c r="B16" s="48">
+      <c r="B16" s="46">
         <v>43178</v>
       </c>
       <c r="C16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="46"/>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="46"/>
+      <c r="C18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="48"/>
-      <c r="C17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="48"/>
-      <c r="C18" t="s">
-        <v>68</v>
-      </c>
-    </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="48"/>
+      <c r="B19" s="46"/>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="46">
+        <v>43238</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="46"/>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="58" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="46">
+        <v>45280</v>
+      </c>
+      <c r="C22" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="48">
-        <v>43238</v>
-      </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="46">
+        <v>45280</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="48"/>
-      <c r="C21" t="s">
+      <c r="B24" s="46">
+        <v>45280</v>
+      </c>
+      <c r="C24" t="s">
         <v>77</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="46">
+        <v>45280</v>
+      </c>
+      <c r="C25" t="s">
+        <v>91</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetProtection password="ECDE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -2834,12 +3169,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2850,58 +3185,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="57" t="s">
-        <v>70</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>69</v>
+      <c r="A2" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="53">
+      <c r="A3" s="51">
         <v>10</v>
       </c>
-      <c r="B3" s="53">
+      <c r="B3" s="51">
         <v>24</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C3" s="54">
         <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="104" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="104"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>71</v>
       </c>
+      <c r="B20">
+        <f>IF(Units="Metric",Pool_Size*0.264172,IF(Units="Imperial",Pool_Size*1.20095,Pool_Size))</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21">
+        <f>IF(Units="Metric",Cl_Production*0.002204623,Cl_Production)</f>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection password="ECDE" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="A18:G18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>